--- a/Offline/BusinessManagement/Marketing/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/Marketing/MarketingMasterPlan-May-2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\Marketing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D844D7D-E175-4336-9B12-D6CF86A43FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DA6B2E-89FC-452A-ABA5-83B1F3C3B860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="836" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="836" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingRatingSheet" sheetId="13" r:id="rId1"/>
@@ -23,23 +23,33 @@
     <sheet name="Home" sheetId="1" r:id="rId8"/>
     <sheet name="Generic" sheetId="17" r:id="rId9"/>
     <sheet name="Artworks" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId11"/>
+    <sheet name="RoadShows" sheetId="23" r:id="rId11"/>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">MarketingPlan!$N$1:$P$53</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="627">
   <si>
     <t>Medium</t>
   </si>
@@ -1614,18 +1624,6 @@
     <t>Narayana Sonarpur</t>
   </si>
   <si>
-    <t>St Xaviers</t>
-  </si>
-  <si>
-    <t>Shre Shikshayatan</t>
-  </si>
-  <si>
-    <t>Bhawanipur Education</t>
-  </si>
-  <si>
-    <t>South City Day</t>
-  </si>
-  <si>
     <t>Hazra Law College</t>
   </si>
   <si>
@@ -1783,6 +1781,165 @@
   </si>
   <si>
     <t>Swino Street Parking</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>5. Gum</t>
+  </si>
+  <si>
+    <t>6. Brush</t>
+  </si>
+  <si>
+    <t>7. Nails</t>
+  </si>
+  <si>
+    <t>8. Bucket</t>
+  </si>
+  <si>
+    <t>9. Hammer</t>
+  </si>
+  <si>
+    <t>10. Alumunium Spoon</t>
+  </si>
+  <si>
+    <t>11. Gloves</t>
+  </si>
+  <si>
+    <t>12. Clothes for hand wash</t>
+  </si>
+  <si>
+    <t>13. Drinking Water</t>
+  </si>
+  <si>
+    <t>14. Tissues</t>
+  </si>
+  <si>
+    <t>15. Alumunium Hundi</t>
+  </si>
+  <si>
+    <t>17. Pen</t>
+  </si>
+  <si>
+    <t>18. Caps</t>
+  </si>
+  <si>
+    <t>20. Caps and Tie</t>
+  </si>
+  <si>
+    <t>21. Sanitizer</t>
+  </si>
+  <si>
+    <t>3. Flex Stand --&gt; 2</t>
+  </si>
+  <si>
+    <t>19. VisitingCards</t>
+  </si>
+  <si>
+    <t>22. Hard CopyTeacher Profiles</t>
+  </si>
+  <si>
+    <t>23. Hard Copy of Course and Fees</t>
+  </si>
+  <si>
+    <t>24.Safety Pins/ Clips</t>
+  </si>
+  <si>
+    <t>25.Clip Boards --&gt; 4</t>
+  </si>
+  <si>
+    <t>26. Umbrella is must</t>
+  </si>
+  <si>
+    <t>2. Standie  --&gt; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. General Poster </t>
+  </si>
+  <si>
+    <t>27. Frame Flex</t>
+  </si>
+  <si>
+    <t>28. Non Frame Flex</t>
+  </si>
+  <si>
+    <t>16. CRM Sheet</t>
+  </si>
+  <si>
+    <t>Locations for Marketing</t>
+  </si>
+  <si>
+    <t>Patuli &amp; E.M Bypass Crossing</t>
+  </si>
+  <si>
+    <t>Patuli Food Court  &amp; Float Market</t>
+  </si>
+  <si>
+    <t>Garia 5/6 Nos Bus Terminas</t>
+  </si>
+  <si>
+    <t>Garia Andrews College</t>
+  </si>
+  <si>
+    <t>Garia K.K. Das College</t>
+  </si>
+  <si>
+    <t>New Garia Metro</t>
+  </si>
+  <si>
+    <t>New Garia Co-operative Shiv Mandir</t>
+  </si>
+  <si>
+    <t>Upohar Complex Hangout Place</t>
+  </si>
+  <si>
+    <t>Patuli Central Club</t>
+  </si>
+  <si>
+    <t>Mukundupur Bus Stop</t>
+  </si>
+  <si>
+    <t>Metropolis Mall -- Highland Park Mall</t>
+  </si>
+  <si>
+    <t>Ajoynagar Crossing</t>
+  </si>
+  <si>
+    <t>Garia Railway Station</t>
+  </si>
+  <si>
+    <t>Kabi Nazrul Metro Station</t>
+  </si>
+  <si>
+    <t>Kamalgazi Crossing</t>
+  </si>
+  <si>
+    <t>Jadavpur 8B Crossing</t>
+  </si>
+  <si>
+    <t>South City Mall Hangout</t>
+  </si>
+  <si>
+    <t>Gariahut crossing -- Anandamela</t>
+  </si>
+  <si>
+    <t>Ranikuthi Crossing (Madhuban Cinema)</t>
+  </si>
+  <si>
+    <t>Lanka Tea Stall</t>
+  </si>
+  <si>
+    <t>Bhooter Raja Dilo Bor - Restaurant</t>
+  </si>
+  <si>
+    <t>Visit Date</t>
+  </si>
+  <si>
+    <t>Kamdhenu &amp; Orbit City</t>
+  </si>
+  <si>
+    <t>Woodsquare Mall</t>
   </si>
 </sst>
 </file>
@@ -3326,6 +3483,66 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3344,6 +3561,9 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3356,6 +3576,9 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3397,72 +3620,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3751,14 +3908,14 @@
       <selection activeCell="C16" sqref="C16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="25.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="23" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="23" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B1" s="156" t="s">
         <v>386</v>
       </c>
@@ -3826,7 +3983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="156" t="s">
         <v>503</v>
       </c>
@@ -3860,10 +4017,10 @@
       <c r="L2" s="156" t="s">
         <v>332</v>
       </c>
-      <c r="M2" s="223" t="s">
+      <c r="M2" s="197" t="s">
         <v>315</v>
       </c>
-      <c r="N2" s="223" t="s">
+      <c r="N2" s="197" t="s">
         <v>340</v>
       </c>
       <c r="O2" s="156" t="s">
@@ -3937,7 +4094,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="137">
         <v>1</v>
       </c>
@@ -4008,7 +4165,7 @@
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
     </row>
-    <row r="4" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="137">
         <v>2</v>
       </c>
@@ -4079,7 +4236,7 @@
       <c r="X4" s="137"/>
       <c r="Y4" s="137"/>
     </row>
-    <row r="5" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="137">
         <v>3</v>
       </c>
@@ -4150,7 +4307,7 @@
       <c r="X5" s="137"/>
       <c r="Y5" s="137"/>
     </row>
-    <row r="6" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="137">
         <v>4</v>
       </c>
@@ -4221,7 +4378,7 @@
       <c r="X6" s="137"/>
       <c r="Y6" s="137"/>
     </row>
-    <row r="7" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" s="137">
         <v>5</v>
       </c>
@@ -4292,7 +4449,7 @@
       <c r="X7" s="137"/>
       <c r="Y7" s="137"/>
     </row>
-    <row r="8" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="137"/>
       <c r="B8" s="137" t="s">
         <v>504</v>
@@ -4347,7 +4504,7 @@
       <c r="X8" s="137"/>
       <c r="Y8" s="137"/>
     </row>
-    <row r="9" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="137"/>
       <c r="B9" s="137" t="s">
         <v>505</v>
@@ -4419,96 +4576,96 @@
       </c>
       <c r="Y9" s="137"/>
     </row>
-    <row r="10" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="137"/>
       <c r="B10" s="179" t="s">
         <v>506</v>
       </c>
       <c r="C10" s="183">
-        <f>AVERAGE(C3:C7)</f>
+        <f t="shared" ref="C10:I10" si="0">AVERAGE(C3:C7)</f>
         <v>3.6893749999999996</v>
       </c>
       <c r="D10" s="183">
-        <f>AVERAGE(D3:D7)</f>
+        <f t="shared" si="0"/>
         <v>3.6437304687500003</v>
       </c>
       <c r="E10" s="183">
-        <f>AVERAGE(E3:E7)</f>
+        <f t="shared" si="0"/>
         <v>3.3928887005435113</v>
       </c>
       <c r="F10" s="183">
-        <f>AVERAGE(F3:F7)</f>
+        <f t="shared" si="0"/>
         <v>3.3236972751811704</v>
       </c>
       <c r="G10" s="183">
-        <f>AVERAGE(G3:G7)</f>
+        <f t="shared" si="0"/>
         <v>3.2329683046463904</v>
       </c>
       <c r="H10" s="183">
-        <f>AVERAGE(H3:H7)</f>
+        <f t="shared" si="0"/>
         <v>3.0625931726630538</v>
       </c>
       <c r="I10" s="183">
-        <f>AVERAGE(I3:I7)</f>
+        <f t="shared" si="0"/>
         <v>3.1377076201264731</v>
       </c>
       <c r="J10" s="183"/>
       <c r="K10" s="183">
-        <f>AVERAGE(K3:K7)</f>
+        <f t="shared" ref="K10:W10" si="1">AVERAGE(K3:K7)</f>
         <v>2.874774883066129</v>
       </c>
       <c r="L10" s="183">
-        <f>AVERAGE(L3:L7)</f>
+        <f t="shared" si="1"/>
         <v>2.8253758946739316</v>
       </c>
       <c r="M10" s="183">
-        <f>AVERAGE(M3:M7)</f>
+        <f t="shared" si="1"/>
         <v>3.0033974752717563</v>
       </c>
       <c r="N10" s="183">
-        <f>AVERAGE(N3:N7)</f>
+        <f t="shared" si="1"/>
         <v>2.8984226638949364</v>
       </c>
       <c r="O10" s="183">
-        <f>AVERAGE(O3:O7)</f>
+        <f t="shared" si="1"/>
         <v>2.8646508908514634</v>
       </c>
       <c r="P10" s="183">
-        <f>AVERAGE(P3:P7)</f>
+        <f t="shared" si="1"/>
         <v>2.8077207126811707</v>
       </c>
       <c r="Q10" s="183">
-        <f>AVERAGE(Q3:Q7)</f>
+        <f t="shared" si="1"/>
         <v>2.6677207126811711</v>
       </c>
       <c r="R10" s="183">
-        <f>AVERAGE(R3:R7)</f>
+        <f t="shared" si="1"/>
         <v>2.5077207126811709</v>
       </c>
       <c r="S10" s="183">
-        <f>AVERAGE(S3:S7)</f>
+        <f t="shared" si="1"/>
         <v>2.4677207126811709</v>
       </c>
       <c r="T10" s="183">
-        <f>AVERAGE(T3:T7)</f>
+        <f t="shared" si="1"/>
         <v>2.4277207126811704</v>
       </c>
       <c r="U10" s="183">
-        <f>AVERAGE(U3:U7)</f>
+        <f t="shared" si="1"/>
         <v>2.4077207126811708</v>
       </c>
       <c r="V10" s="183">
-        <f>AVERAGE(V3:V7)</f>
+        <f t="shared" si="1"/>
         <v>2.4307905345108778</v>
       </c>
       <c r="W10" s="183">
-        <f>AVERAGE(W3:W7)</f>
+        <f t="shared" si="1"/>
         <v>2.3706406252404069</v>
       </c>
       <c r="X10" s="137"/>
       <c r="Y10" s="137"/>
     </row>
-    <row r="11" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="137"/>
       <c r="B11" s="137"/>
       <c r="C11" s="180"/>
@@ -4535,7 +4692,7 @@
       <c r="X11" s="137"/>
       <c r="Y11" s="137"/>
     </row>
-    <row r="12" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" s="137"/>
       <c r="B12" s="179"/>
       <c r="C12" s="181"/>
@@ -4562,7 +4719,7 @@
       <c r="X12" s="137"/>
       <c r="Y12" s="137"/>
     </row>
-    <row r="13" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" s="137"/>
       <c r="B13" s="179"/>
       <c r="C13" s="181"/>
@@ -4589,7 +4746,7 @@
       <c r="X13" s="137"/>
       <c r="Y13" s="137"/>
     </row>
-    <row r="14" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="137"/>
       <c r="B14" s="179"/>
       <c r="C14" s="181">
@@ -4642,7 +4799,7 @@
       <c r="X14" s="137"/>
       <c r="Y14" s="137"/>
     </row>
-    <row r="15" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="137"/>
       <c r="B15" s="179"/>
       <c r="C15" s="181" t="s">
@@ -4667,20 +4824,20 @@
       <c r="X15" s="137"/>
       <c r="Y15" s="137"/>
     </row>
-    <row r="16" spans="1:38" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="137"/>
       <c r="B16" s="179"/>
       <c r="G16" s="181" t="s">
+        <v>521</v>
+      </c>
+      <c r="H16" s="181" t="s">
+        <v>523</v>
+      </c>
+      <c r="I16" s="181" t="s">
+        <v>524</v>
+      </c>
+      <c r="J16" s="181" t="s">
         <v>525</v>
-      </c>
-      <c r="H16" s="181" t="s">
-        <v>527</v>
-      </c>
-      <c r="I16" s="181" t="s">
-        <v>528</v>
-      </c>
-      <c r="J16" s="181" t="s">
-        <v>529</v>
       </c>
       <c r="T16" s="181"/>
       <c r="U16" s="181"/>
@@ -4689,24 +4846,24 @@
       <c r="X16" s="137"/>
       <c r="Y16" s="137"/>
     </row>
-    <row r="18" spans="1:25" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="K18" s="181" t="s">
+        <v>526</v>
+      </c>
+      <c r="L18" t="s">
+        <v>527</v>
+      </c>
+      <c r="M18" t="s">
+        <v>528</v>
+      </c>
+      <c r="N18" t="s">
+        <v>529</v>
+      </c>
+      <c r="O18" s="137" t="s">
         <v>530</v>
       </c>
-      <c r="L18" t="s">
-        <v>531</v>
-      </c>
-      <c r="M18" t="s">
-        <v>532</v>
-      </c>
-      <c r="N18" t="s">
-        <v>533</v>
-      </c>
-      <c r="O18" s="137" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="14.65" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="137"/>
       <c r="B22" s="137"/>
       <c r="C22" s="137"/>
@@ -4732,7 +4889,7 @@
       <c r="X22" s="137"/>
       <c r="Y22" s="137"/>
     </row>
-    <row r="23" spans="1:25" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="137"/>
       <c r="B23" s="137"/>
       <c r="C23" s="137"/>
@@ -4759,7 +4916,7 @@
       <c r="X23" s="137"/>
       <c r="Y23" s="137"/>
     </row>
-    <row r="24" spans="1:25" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="137"/>
       <c r="B24" s="137"/>
       <c r="C24" s="137"/>
@@ -4786,7 +4943,7 @@
       <c r="X24" s="137"/>
       <c r="Y24" s="137"/>
     </row>
-    <row r="25" spans="1:25" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="137"/>
       <c r="B25" s="137"/>
       <c r="C25" s="137"/>
@@ -4813,7 +4970,7 @@
       <c r="X25" s="137"/>
       <c r="Y25" s="137"/>
     </row>
-    <row r="26" spans="1:25" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="137"/>
       <c r="B26" s="137"/>
       <c r="C26" s="137"/>
@@ -4840,7 +4997,7 @@
       <c r="X26" s="137"/>
       <c r="Y26" s="137"/>
     </row>
-    <row r="27" spans="1:25" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="137"/>
       <c r="B27" s="137"/>
       <c r="C27" s="137"/>
@@ -4867,7 +5024,7 @@
       <c r="X27" s="137"/>
       <c r="Y27" s="137"/>
     </row>
-    <row r="28" spans="1:25" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="137"/>
       <c r="B28" s="137"/>
       <c r="C28" s="137"/>
@@ -4894,7 +5051,7 @@
       <c r="X28" s="137"/>
       <c r="Y28" s="137"/>
     </row>
-    <row r="29" spans="1:25" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="137"/>
       <c r="B29" s="137"/>
       <c r="C29" s="137"/>
@@ -4921,7 +5078,7 @@
       <c r="X29" s="137"/>
       <c r="Y29" s="137"/>
     </row>
-    <row r="30" spans="1:25" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="137"/>
       <c r="B30" s="137"/>
       <c r="C30" s="137"/>
@@ -4938,7 +5095,7 @@
       <c r="V30" s="137"/>
       <c r="W30" s="137"/>
     </row>
-    <row r="31" spans="1:25" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="137"/>
       <c r="B31" s="137"/>
       <c r="C31" s="137"/>
@@ -4955,7 +5112,7 @@
       <c r="V31" s="137"/>
       <c r="W31" s="137"/>
     </row>
-    <row r="32" spans="1:25" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="137"/>
       <c r="B32" s="137"/>
       <c r="C32" s="137"/>
@@ -4972,7 +5129,7 @@
       <c r="V32" s="137"/>
       <c r="W32" s="137"/>
     </row>
-    <row r="33" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="137"/>
       <c r="B33" s="137"/>
       <c r="C33" s="137"/>
@@ -4989,7 +5146,7 @@
       <c r="V33" s="137"/>
       <c r="W33" s="137"/>
     </row>
-    <row r="34" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="137"/>
       <c r="B34" s="137"/>
       <c r="C34" s="137"/>
@@ -5006,7 +5163,7 @@
       <c r="V34" s="137"/>
       <c r="W34" s="137"/>
     </row>
-    <row r="35" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="137"/>
       <c r="B35" s="137"/>
       <c r="C35" s="137"/>
@@ -5023,7 +5180,7 @@
       <c r="V35" s="137"/>
       <c r="W35" s="137"/>
     </row>
-    <row r="36" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="137"/>
       <c r="B36" s="137"/>
       <c r="C36" s="137"/>
@@ -5040,7 +5197,7 @@
       <c r="V36" s="137"/>
       <c r="W36" s="137"/>
     </row>
-    <row r="37" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="137"/>
       <c r="B37" s="137"/>
       <c r="C37" s="137"/>
@@ -5057,7 +5214,7 @@
       <c r="V37" s="137"/>
       <c r="W37" s="137"/>
     </row>
-    <row r="38" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="137"/>
       <c r="B38" s="137"/>
       <c r="C38" s="137"/>
@@ -5074,7 +5231,7 @@
       <c r="V38" s="137"/>
       <c r="W38" s="137"/>
     </row>
-    <row r="39" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="137"/>
       <c r="B39" s="137"/>
       <c r="C39" s="137"/>
@@ -5091,7 +5248,7 @@
       <c r="V39" s="137"/>
       <c r="W39" s="137"/>
     </row>
-    <row r="40" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="137"/>
       <c r="B40" s="137"/>
       <c r="C40" s="137"/>
@@ -5129,14 +5286,14 @@
       <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="458" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="458" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:458" ht="51.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:458" ht="55.2" x14ac:dyDescent="0.3">
       <c r="C1" s="133">
         <v>45052</v>
       </c>
@@ -5621,7 +5778,7 @@
       <c r="QO1" s="128"/>
       <c r="QP1" s="128"/>
     </row>
-    <row r="2" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:458" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -5657,7 +5814,7 @@
       <c r="AC2" s="132"/>
       <c r="AD2" s="132"/>
     </row>
-    <row r="3" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -5690,7 +5847,7 @@
       <c r="AC3" s="132"/>
       <c r="AD3" s="132"/>
     </row>
-    <row r="4" spans="1:458" ht="160.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:458" ht="168" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -5735,7 +5892,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:458" ht="99" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:458" ht="96" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -5774,7 +5931,7 @@
       <c r="AO5" s="140"/>
       <c r="AP5" s="140"/>
     </row>
-    <row r="6" spans="1:458" ht="99" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:458" ht="108" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -5813,7 +5970,7 @@
       <c r="AO6" s="140"/>
       <c r="AP6" s="140"/>
     </row>
-    <row r="7" spans="1:458" ht="123.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:458" ht="144" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -5852,7 +6009,7 @@
       <c r="AO7" s="140"/>
       <c r="AP7" s="140"/>
     </row>
-    <row r="8" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -5885,7 +6042,7 @@
       <c r="AC8" s="132"/>
       <c r="AD8" s="132"/>
     </row>
-    <row r="9" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -5918,7 +6075,7 @@
       <c r="AC9" s="132"/>
       <c r="AD9" s="132"/>
     </row>
-    <row r="10" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -5951,7 +6108,7 @@
       <c r="AC10" s="132"/>
       <c r="AD10" s="132"/>
     </row>
-    <row r="11" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -5984,7 +6141,7 @@
       <c r="AC11" s="132"/>
       <c r="AD11" s="132"/>
     </row>
-    <row r="12" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>71</v>
       </c>
@@ -6017,7 +6174,7 @@
       <c r="AC12" s="132"/>
       <c r="AD12" s="132"/>
     </row>
-    <row r="13" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -6050,7 +6207,7 @@
       <c r="AC13" s="132"/>
       <c r="AD13" s="132"/>
     </row>
-    <row r="14" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -6083,7 +6240,7 @@
       <c r="AC14" s="132"/>
       <c r="AD14" s="132"/>
     </row>
-    <row r="15" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -6116,7 +6273,7 @@
       <c r="AC15" s="132"/>
       <c r="AD15" s="132"/>
     </row>
-    <row r="16" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -6149,7 +6306,7 @@
       <c r="AC16" s="132"/>
       <c r="AD16" s="132"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -6182,7 +6339,7 @@
       <c r="AC17" s="132"/>
       <c r="AD17" s="132"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -6218,7 +6375,7 @@
       <c r="AC18" s="132"/>
       <c r="AD18" s="132"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -6251,7 +6408,7 @@
       <c r="AC19" s="132"/>
       <c r="AD19" s="132"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>61</v>
       </c>
@@ -6284,7 +6441,7 @@
       <c r="AC20" s="132"/>
       <c r="AD20" s="132"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -6317,7 +6474,7 @@
       <c r="AC21" s="132"/>
       <c r="AD21" s="132"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -6350,7 +6507,7 @@
       <c r="AC22" s="132"/>
       <c r="AD22" s="132"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>63</v>
       </c>
@@ -6383,7 +6540,7 @@
       <c r="AC23" s="132"/>
       <c r="AD23" s="132"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>79</v>
       </c>
@@ -6416,7 +6573,7 @@
       <c r="AC24" s="132"/>
       <c r="AD24" s="132"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -6449,7 +6606,7 @@
       <c r="AC25" s="132"/>
       <c r="AD25" s="132"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>81</v>
       </c>
@@ -6482,7 +6639,7 @@
       <c r="AC26" s="132"/>
       <c r="AD26" s="132"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -6515,7 +6672,7 @@
       <c r="AC27" s="132"/>
       <c r="AD27" s="132"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -6548,7 +6705,7 @@
       <c r="AC28" s="132"/>
       <c r="AD28" s="132"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -6581,7 +6738,7 @@
       <c r="AC29" s="132"/>
       <c r="AD29" s="132"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>85</v>
       </c>
@@ -6614,7 +6771,7 @@
       <c r="AC30" s="132"/>
       <c r="AD30" s="132"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -6647,7 +6804,7 @@
       <c r="AC31" s="132"/>
       <c r="AD31" s="132"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -6680,7 +6837,7 @@
       <c r="AC32" s="132"/>
       <c r="AD32" s="132"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>88</v>
       </c>
@@ -6721,822 +6878,234 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C788D979-7CB4-4DA8-AE6B-ABB33AE1CBEA}">
-  <dimension ref="A1:J68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915E635A-68CA-4147-811F-424EF28651FA}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.796875" style="152" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="152" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="153" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="203" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="154" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="154" t="s">
-        <v>312</v>
-      </c>
-      <c r="D1" s="154" t="s">
+      <c r="B1" s="141" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1" s="141" t="s">
+        <v>624</v>
+      </c>
+      <c r="D1" s="141" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="141" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="153">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="152">
         <v>1</v>
       </c>
-      <c r="B3" s="154" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="153">
+      <c r="B2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="152">
         <v>2</v>
       </c>
-      <c r="B4" s="154" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="153">
+      <c r="B3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="152">
         <v>3</v>
       </c>
-      <c r="B5" s="154" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="153">
+      <c r="B4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="152">
         <v>4</v>
       </c>
-      <c r="B6" s="154" t="s">
-        <v>316</v>
-      </c>
-      <c r="C6" s="154">
+      <c r="B5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="152">
         <v>5</v>
       </c>
-      <c r="D6" s="154" t="s">
-        <v>355</v>
-      </c>
-      <c r="E6" s="154" t="s">
-        <v>358</v>
-      </c>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="153">
-        <v>5</v>
-      </c>
-      <c r="B7" s="154" t="s">
-        <v>317</v>
-      </c>
-      <c r="C7" s="154">
-        <v>5</v>
-      </c>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="153">
+      <c r="B6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="152">
         <v>6</v>
       </c>
-      <c r="B8" s="154" t="s">
-        <v>318</v>
-      </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="153">
+      <c r="B7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="152">
         <v>7</v>
       </c>
-      <c r="B9" s="154" t="s">
-        <v>319</v>
-      </c>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="153">
+      <c r="B8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="152">
         <v>8</v>
       </c>
-      <c r="B10" s="154" t="s">
-        <v>322</v>
-      </c>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="153">
+      <c r="B9" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="152">
         <v>9</v>
       </c>
-      <c r="B11" s="154" t="s">
-        <v>323</v>
-      </c>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="153">
+      <c r="B10" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="152">
         <v>10</v>
       </c>
-      <c r="B12" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="153">
+      <c r="B11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="152">
         <v>11</v>
       </c>
-      <c r="B13" s="154" t="s">
-        <v>329</v>
-      </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="153">
+      <c r="B12" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="152">
         <v>12</v>
       </c>
-      <c r="B14" s="154" t="s">
-        <v>324</v>
-      </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="153">
+      <c r="B13" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="152">
         <v>13</v>
       </c>
-      <c r="B15" s="154" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="153">
+      <c r="B14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="152">
         <v>14</v>
       </c>
-      <c r="B16" s="154" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="153">
+      <c r="B15" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="152">
         <v>15</v>
       </c>
-      <c r="B17" s="154" t="s">
-        <v>326</v>
-      </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="153">
+      <c r="B16" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="152">
         <v>16</v>
       </c>
-      <c r="B18" s="154" t="s">
-        <v>328</v>
-      </c>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="153">
+      <c r="B17" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="152">
         <v>17</v>
       </c>
-      <c r="B19" s="154" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="153"/>
-      <c r="B20" s="154" t="s">
-        <v>379</v>
-      </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="153">
+      <c r="B18" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="152">
         <v>18</v>
       </c>
-      <c r="B21" s="154" t="s">
-        <v>331</v>
-      </c>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="153">
+      <c r="B19" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="152">
         <v>19</v>
       </c>
-      <c r="B22" s="154" t="s">
-        <v>332</v>
-      </c>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="153"/>
-      <c r="B23" s="154" t="s">
-        <v>376</v>
-      </c>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="153"/>
-      <c r="B24" s="154" t="s">
-        <v>377</v>
-      </c>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="153">
+      <c r="B20" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="152">
         <v>20</v>
       </c>
-      <c r="B25" s="154" t="s">
-        <v>320</v>
-      </c>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="153">
+      <c r="B21" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="152">
         <v>21</v>
       </c>
-      <c r="B26" s="154" t="s">
-        <v>321</v>
-      </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="153">
+      <c r="B22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="152">
         <v>22</v>
       </c>
-      <c r="B27" s="154" t="s">
-        <v>333</v>
-      </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="153">
+      <c r="B23" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="152">
         <v>23</v>
       </c>
-      <c r="B28" s="154" t="s">
-        <v>334</v>
-      </c>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="153">
+      <c r="B24" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="152">
         <v>24</v>
       </c>
-      <c r="B29" s="154" t="s">
-        <v>335</v>
-      </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="153">
+      <c r="B25" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="152">
         <v>25</v>
       </c>
-      <c r="B30" s="154" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="153">
-        <v>26</v>
-      </c>
-      <c r="B31" s="154" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="153">
-        <v>27</v>
-      </c>
-      <c r="B32" s="154" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="153">
-        <v>28</v>
-      </c>
-      <c r="B33" s="154" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="153">
-        <v>29</v>
-      </c>
-      <c r="B34" s="154" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="153">
-        <v>30</v>
-      </c>
-      <c r="B35" s="154" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="153">
-        <v>31</v>
-      </c>
-      <c r="B36" s="154" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="153">
-        <v>32</v>
-      </c>
-      <c r="B37" s="154" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="153">
-        <v>33</v>
-      </c>
-      <c r="B38" s="154" t="s">
-        <v>344</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="153">
-        <v>34</v>
-      </c>
-      <c r="B39" s="154" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="153">
-        <v>35</v>
-      </c>
-      <c r="B40" s="154" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="153">
-        <v>36</v>
-      </c>
-      <c r="B41" s="154" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="153">
-        <v>37</v>
-      </c>
-      <c r="B42" s="154" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="153">
-        <v>38</v>
-      </c>
-      <c r="B43" s="154" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" s="153">
-        <v>39</v>
-      </c>
-      <c r="B44" s="154" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="153">
-        <v>40</v>
-      </c>
-      <c r="B45" s="154" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="153">
-        <v>41</v>
-      </c>
-      <c r="B46" s="154" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="152">
-        <v>42</v>
-      </c>
-      <c r="B47" s="154" t="s">
-        <v>353</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="152">
-        <v>43</v>
-      </c>
-      <c r="B48" s="154" t="s">
-        <v>356</v>
-      </c>
-      <c r="C48">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="152">
-        <v>44</v>
-      </c>
-      <c r="B49" s="154" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="152">
-        <v>45</v>
-      </c>
-      <c r="B50" s="154" t="s">
-        <v>361</v>
-      </c>
-      <c r="D50" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="152">
-        <v>46</v>
-      </c>
-      <c r="B51" s="154" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="152">
-        <v>47</v>
-      </c>
-      <c r="B52" s="154" t="s">
-        <v>364</v>
-      </c>
-      <c r="C52">
-        <v>5</v>
-      </c>
-      <c r="D52" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="152">
-        <v>48</v>
-      </c>
-      <c r="B53" s="154" t="s">
-        <v>365</v>
-      </c>
-      <c r="C53">
-        <v>5</v>
-      </c>
-      <c r="D53" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="152">
-        <v>49</v>
-      </c>
-      <c r="B54" s="154" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="152">
-        <v>50</v>
-      </c>
-      <c r="B55" s="154" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="152">
-        <v>51</v>
-      </c>
-      <c r="B56" s="154" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="152">
-        <v>52</v>
-      </c>
-      <c r="B57" s="154" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="152">
-        <v>53</v>
-      </c>
-      <c r="B58" s="154" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="152">
-        <v>54</v>
-      </c>
-      <c r="B59" s="154" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="152">
-        <v>55</v>
-      </c>
-      <c r="B60" s="154" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="152">
-        <v>56</v>
-      </c>
-      <c r="B61" s="154" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="152">
-        <v>57</v>
-      </c>
-      <c r="B62" s="154" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="152">
-        <v>58</v>
-      </c>
-      <c r="B63" s="154" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="152">
-        <v>59</v>
-      </c>
-      <c r="B64" s="154" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" s="152">
-        <v>60</v>
-      </c>
-      <c r="B65" s="154" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" s="152">
-        <v>61</v>
-      </c>
-      <c r="B66" s="154" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="152">
-        <v>62</v>
-      </c>
-      <c r="B67" s="154" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="152">
-        <v>63</v>
-      </c>
-      <c r="B68" s="154" t="s">
-        <v>385</v>
+      <c r="B26" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -7553,20 +7122,20 @@
       <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="139" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="139" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="139" customWidth="1"/>
-    <col min="3" max="12" width="11.46484375" style="139" customWidth="1"/>
-    <col min="13" max="13" width="1.46484375" style="139" customWidth="1"/>
-    <col min="14" max="14" width="7.1328125" style="139" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1328125" style="139" customWidth="1"/>
-    <col min="16" max="16" width="6.796875" style="139" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="11.44140625" style="139" customWidth="1"/>
+    <col min="13" max="13" width="1.44140625" style="139" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="139" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.109375" style="139" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" style="139" bestFit="1" customWidth="1"/>
     <col min="17" max="47" width="13.6640625" style="139" customWidth="1"/>
     <col min="48" max="16384" width="14.6640625" style="139"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="37.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="A1" s="142" t="s">
         <v>102</v>
       </c>
@@ -7614,8 +7183,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="205" t="s">
+    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="227" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="142" t="s">
@@ -7642,8 +7211,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="207"/>
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="229"/>
       <c r="B3" s="142" t="s">
         <v>302</v>
       </c>
@@ -7668,8 +7237,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="207"/>
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="229"/>
       <c r="B4" s="142" t="s">
         <v>261</v>
       </c>
@@ -7694,8 +7263,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="206"/>
+    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="228"/>
       <c r="B5" s="142" t="s">
         <v>301</v>
       </c>
@@ -7720,8 +7289,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="205" t="s">
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="227" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="142" t="s">
@@ -7748,8 +7317,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="207"/>
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="229"/>
       <c r="B7" s="142" t="s">
         <v>113</v>
       </c>
@@ -7774,8 +7343,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="207"/>
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="229"/>
       <c r="B8" s="142" t="s">
         <v>122</v>
       </c>
@@ -7800,8 +7369,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="206"/>
+    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="228"/>
       <c r="B9" s="142" t="s">
         <v>116</v>
       </c>
@@ -7826,8 +7395,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="205" t="s">
+    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="227" t="s">
         <v>300</v>
       </c>
       <c r="B10" s="142" t="s">
@@ -7854,8 +7423,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="207"/>
+    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="229"/>
       <c r="B11" s="142" t="s">
         <v>298</v>
       </c>
@@ -7880,8 +7449,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="206"/>
+    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="228"/>
       <c r="B12" s="142" t="s">
         <v>115</v>
       </c>
@@ -7906,8 +7475,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="205" t="s">
+    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="227" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="142" t="s">
@@ -7934,8 +7503,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="207"/>
+    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="229"/>
       <c r="B14" s="142" t="s">
         <v>123</v>
       </c>
@@ -7960,8 +7529,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="207"/>
+    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="229"/>
       <c r="B15" s="142" t="s">
         <v>120</v>
       </c>
@@ -7986,8 +7555,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="206"/>
+    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="228"/>
       <c r="B16" s="142" t="s">
         <v>117</v>
       </c>
@@ -8012,8 +7581,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="205" t="s">
+    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="227" t="s">
         <v>100</v>
       </c>
       <c r="B17" s="142" t="s">
@@ -8040,8 +7609,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="206"/>
+    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="228"/>
       <c r="B18" s="142" t="s">
         <v>119</v>
       </c>
@@ -8066,7 +7635,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="142" t="s">
         <v>101</v>
       </c>
@@ -8094,7 +7663,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N20" s="144" t="s">
         <v>227</v>
       </c>
@@ -8105,7 +7674,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N21" s="144" t="s">
         <v>228</v>
       </c>
@@ -8116,7 +7685,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N22" s="144" t="s">
         <v>229</v>
       </c>
@@ -8127,7 +7696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N23" s="144" t="s">
         <v>244</v>
       </c>
@@ -8138,7 +7707,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N24" s="144" t="s">
         <v>230</v>
       </c>
@@ -8149,7 +7718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N25" s="144" t="s">
         <v>231</v>
       </c>
@@ -8160,7 +7729,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="144" t="s">
         <v>232</v>
       </c>
@@ -8171,7 +7740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="144" t="s">
         <v>233</v>
       </c>
@@ -8182,7 +7751,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N28" s="144" t="s">
         <v>234</v>
       </c>
@@ -8193,7 +7762,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="144" t="s">
         <v>235</v>
       </c>
@@ -8204,7 +7773,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N30" s="144" t="s">
         <v>245</v>
       </c>
@@ -8215,7 +7784,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N31" s="144" t="s">
         <v>236</v>
       </c>
@@ -8226,7 +7795,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N32" s="144" t="s">
         <v>237</v>
       </c>
@@ -8237,7 +7806,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N33" s="144" t="s">
         <v>238</v>
       </c>
@@ -8248,7 +7817,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N34" s="144" t="s">
         <v>239</v>
       </c>
@@ -8259,7 +7828,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N35" s="144" t="s">
         <v>240</v>
       </c>
@@ -8270,7 +7839,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N36" s="144" t="s">
         <v>241</v>
       </c>
@@ -8281,7 +7850,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N37" s="144" t="s">
         <v>248</v>
       </c>
@@ -8292,7 +7861,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N38" s="144" t="s">
         <v>249</v>
       </c>
@@ -8303,7 +7872,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N39" s="144" t="s">
         <v>251</v>
       </c>
@@ -8314,7 +7883,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N40" s="144" t="s">
         <v>252</v>
       </c>
@@ -8325,7 +7894,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N41" s="144" t="s">
         <v>253</v>
       </c>
@@ -8336,7 +7905,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N42" s="144" t="s">
         <v>254</v>
       </c>
@@ -8347,7 +7916,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N43" s="144" t="s">
         <v>263</v>
       </c>
@@ -8358,7 +7927,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N44" s="144" t="s">
         <v>264</v>
       </c>
@@ -8369,7 +7938,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N45" s="144" t="s">
         <v>265</v>
       </c>
@@ -8380,7 +7949,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N46" s="144" t="s">
         <v>266</v>
       </c>
@@ -8391,7 +7960,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N47" s="144" t="s">
         <v>267</v>
       </c>
@@ -8402,7 +7971,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N48" s="144" t="s">
         <v>268</v>
       </c>
@@ -8413,7 +7982,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N49" s="144" t="s">
         <v>269</v>
       </c>
@@ -8424,7 +7993,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N50" s="144" t="s">
         <v>270</v>
       </c>
@@ -8435,7 +8004,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N51" s="144" t="s">
         <v>271</v>
       </c>
@@ -8446,7 +8015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N52" s="144" t="s">
         <v>272</v>
       </c>
@@ -8457,7 +8026,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N53" s="144" t="s">
         <v>273</v>
       </c>
@@ -8468,36 +8037,36 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="N1:P53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="5">
@@ -8515,904 +8084,1886 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C788D979-7CB4-4DA8-AE6B-ABB33AE1CBEA}">
+  <dimension ref="A1:J68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" style="152" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="153" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="154" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="154" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="153"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="153">
+        <v>1</v>
+      </c>
+      <c r="B3" s="154" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="153">
+        <v>2</v>
+      </c>
+      <c r="B4" s="154" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="153">
+        <v>3</v>
+      </c>
+      <c r="B5" s="154" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="153">
+        <v>4</v>
+      </c>
+      <c r="B6" s="154" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="154">
+        <v>5</v>
+      </c>
+      <c r="D6" s="154" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="154" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="153">
+        <v>5</v>
+      </c>
+      <c r="B7" s="154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="154">
+        <v>5</v>
+      </c>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="153">
+        <v>6</v>
+      </c>
+      <c r="B8" s="154" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="153">
+        <v>7</v>
+      </c>
+      <c r="B9" s="154" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="153">
+        <v>8</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="153">
+        <v>9</v>
+      </c>
+      <c r="B11" s="154" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="153">
+        <v>10</v>
+      </c>
+      <c r="B12" s="154" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="153">
+        <v>11</v>
+      </c>
+      <c r="B13" s="154" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="153">
+        <v>12</v>
+      </c>
+      <c r="B14" s="154" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="153">
+        <v>13</v>
+      </c>
+      <c r="B15" s="154" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="153">
+        <v>14</v>
+      </c>
+      <c r="B16" s="154" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="153">
+        <v>15</v>
+      </c>
+      <c r="B17" s="154" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="153">
+        <v>16</v>
+      </c>
+      <c r="B18" s="154" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="153">
+        <v>17</v>
+      </c>
+      <c r="B19" s="154" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="153"/>
+      <c r="B20" s="154" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="153">
+        <v>18</v>
+      </c>
+      <c r="B21" s="154" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="153">
+        <v>19</v>
+      </c>
+      <c r="B22" s="154" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="153"/>
+      <c r="B23" s="154" t="s">
+        <v>376</v>
+      </c>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="153"/>
+      <c r="B24" s="154" t="s">
+        <v>377</v>
+      </c>
+      <c r="C24" s="154"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="153">
+        <v>20</v>
+      </c>
+      <c r="B25" s="154" t="s">
+        <v>320</v>
+      </c>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="153">
+        <v>21</v>
+      </c>
+      <c r="B26" s="154" t="s">
+        <v>321</v>
+      </c>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="153">
+        <v>22</v>
+      </c>
+      <c r="B27" s="154" t="s">
+        <v>333</v>
+      </c>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="153">
+        <v>23</v>
+      </c>
+      <c r="B28" s="154" t="s">
+        <v>334</v>
+      </c>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="153">
+        <v>24</v>
+      </c>
+      <c r="B29" s="154" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="153">
+        <v>25</v>
+      </c>
+      <c r="B30" s="154" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="153">
+        <v>26</v>
+      </c>
+      <c r="B31" s="154" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="153">
+        <v>27</v>
+      </c>
+      <c r="B32" s="154" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="153">
+        <v>28</v>
+      </c>
+      <c r="B33" s="154" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="153">
+        <v>29</v>
+      </c>
+      <c r="B34" s="154" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="153">
+        <v>30</v>
+      </c>
+      <c r="B35" s="154" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="153">
+        <v>31</v>
+      </c>
+      <c r="B36" s="154" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="153">
+        <v>32</v>
+      </c>
+      <c r="B37" s="154" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="153">
+        <v>33</v>
+      </c>
+      <c r="B38" s="154" t="s">
+        <v>344</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="153">
+        <v>34</v>
+      </c>
+      <c r="B39" s="154" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="153">
+        <v>35</v>
+      </c>
+      <c r="B40" s="154" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="153">
+        <v>36</v>
+      </c>
+      <c r="B41" s="154" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="153">
+        <v>37</v>
+      </c>
+      <c r="B42" s="154" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="153">
+        <v>38</v>
+      </c>
+      <c r="B43" s="154" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="153">
+        <v>39</v>
+      </c>
+      <c r="B44" s="154" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="153">
+        <v>40</v>
+      </c>
+      <c r="B45" s="154" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="153">
+        <v>41</v>
+      </c>
+      <c r="B46" s="154" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="152">
+        <v>42</v>
+      </c>
+      <c r="B47" s="154" t="s">
+        <v>353</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="152">
+        <v>43</v>
+      </c>
+      <c r="B48" s="154" t="s">
+        <v>356</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="152">
+        <v>44</v>
+      </c>
+      <c r="B49" s="154" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="152">
+        <v>45</v>
+      </c>
+      <c r="B50" s="154" t="s">
+        <v>361</v>
+      </c>
+      <c r="D50" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="152">
+        <v>46</v>
+      </c>
+      <c r="B51" s="154" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="152">
+        <v>47</v>
+      </c>
+      <c r="B52" s="154" t="s">
+        <v>364</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="152">
+        <v>48</v>
+      </c>
+      <c r="B53" s="154" t="s">
+        <v>365</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="152">
+        <v>49</v>
+      </c>
+      <c r="B54" s="154" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="152">
+        <v>50</v>
+      </c>
+      <c r="B55" s="154" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="152">
+        <v>51</v>
+      </c>
+      <c r="B56" s="154" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="152">
+        <v>52</v>
+      </c>
+      <c r="B57" s="154" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="152">
+        <v>53</v>
+      </c>
+      <c r="B58" s="154" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="152">
+        <v>54</v>
+      </c>
+      <c r="B59" s="154" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="152">
+        <v>55</v>
+      </c>
+      <c r="B60" s="154" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="152">
+        <v>56</v>
+      </c>
+      <c r="B61" s="154" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="152">
+        <v>57</v>
+      </c>
+      <c r="B62" s="154" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="152">
+        <v>58</v>
+      </c>
+      <c r="B63" s="154" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="152">
+        <v>59</v>
+      </c>
+      <c r="B64" s="154" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="152">
+        <v>60</v>
+      </c>
+      <c r="B65" s="154" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="152">
+        <v>61</v>
+      </c>
+      <c r="B66" s="154" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="152">
+        <v>62</v>
+      </c>
+      <c r="B67" s="154" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="152">
+        <v>63</v>
+      </c>
+      <c r="B68" s="154" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9956FF7E-BD44-4315-B1B9-AF37BE395C6A}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="34.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" style="156" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.53125" style="156" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.46484375" style="156" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1328125" style="156" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="156" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="156" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="156" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="156" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.33203125" style="156" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="156" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" style="156" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="156" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="156" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="156" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" style="156" customWidth="1"/>
-    <col min="11" max="11" width="9.19921875" style="156" customWidth="1"/>
-    <col min="12" max="12" width="8.265625" style="156" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.9296875" style="156" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.46484375" style="156" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.1328125" style="156" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.86328125" style="156" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="156" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" style="156" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="156" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" style="156" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.109375" style="156" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.88671875" style="156" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.33203125" style="156" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.33203125" style="156" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.6640625" style="156" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1328125" style="156" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" style="156" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" style="156" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="34.06640625" style="156"/>
+    <col min="22" max="16384" width="34.109375" style="156"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="190" t="s">
+    <row r="1" spans="1:22" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="211" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="184" t="s">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="204" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="189" t="s">
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="209" t="s">
         <v>405</v>
       </c>
-      <c r="P1" s="187" t="s">
+      <c r="P1" s="207" t="s">
         <v>396</v>
       </c>
-      <c r="Q1" s="188"/>
+      <c r="Q1" s="208"/>
       <c r="R1" s="165"/>
       <c r="S1" s="166"/>
       <c r="T1" s="165" t="s">
         <v>398</v>
       </c>
-      <c r="U1" s="193" t="s">
+      <c r="U1" s="214" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="24.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="208" t="s">
+    <row r="2" spans="1:22" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="184" t="s">
         <v>386</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="209" t="s">
+      <c r="B2" s="198"/>
+      <c r="C2" s="185" t="s">
         <v>387</v>
       </c>
-      <c r="D2" s="209" t="s">
+      <c r="D2" s="185" t="s">
         <v>388</v>
       </c>
-      <c r="E2" s="209" t="s">
+      <c r="E2" s="185" t="s">
+        <v>552</v>
+      </c>
+      <c r="F2" s="186" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" s="187" t="s">
+        <v>402</v>
+      </c>
+      <c r="H2" s="188" t="s">
+        <v>392</v>
+      </c>
+      <c r="I2" s="188" t="s">
+        <v>403</v>
+      </c>
+      <c r="J2" s="188" t="s">
+        <v>537</v>
+      </c>
+      <c r="K2" s="188" t="s">
+        <v>390</v>
+      </c>
+      <c r="L2" s="188" t="s">
+        <v>391</v>
+      </c>
+      <c r="M2" s="188" t="s">
+        <v>394</v>
+      </c>
+      <c r="N2" s="189" t="s">
+        <v>404</v>
+      </c>
+      <c r="O2" s="210"/>
+      <c r="P2" s="190" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q2" s="191" t="s">
+        <v>397</v>
+      </c>
+      <c r="R2" s="192" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="193" t="s">
+        <v>399</v>
+      </c>
+      <c r="T2" s="192" t="s">
+        <v>415</v>
+      </c>
+      <c r="U2" s="215"/>
+    </row>
+    <row r="3" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="194">
+        <v>1</v>
+      </c>
+      <c r="B3" s="156" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="195" t="s">
+        <v>533</v>
+      </c>
+      <c r="E3" s="195" t="s">
+        <v>534</v>
+      </c>
+      <c r="F3" s="195" t="s">
+        <v>535</v>
+      </c>
+      <c r="G3" s="195" t="s">
+        <v>538</v>
+      </c>
+      <c r="H3" s="195" t="s">
+        <v>449</v>
+      </c>
+      <c r="I3" s="195" t="s">
+        <v>412</v>
+      </c>
+      <c r="J3" s="195" t="s">
+        <v>411</v>
+      </c>
+      <c r="K3" s="195" t="s">
+        <v>539</v>
+      </c>
+      <c r="L3" s="195" t="s">
+        <v>548</v>
+      </c>
+      <c r="M3" s="195" t="s">
+        <v>259</v>
+      </c>
+      <c r="N3" s="156" t="s">
+        <v>573</v>
+      </c>
+      <c r="O3" s="194" t="s">
+        <v>536</v>
+      </c>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="194" t="s">
+        <v>542</v>
+      </c>
+      <c r="S3" s="196" t="s">
+        <v>543</v>
+      </c>
+      <c r="T3" s="194"/>
+      <c r="U3" s="196">
+        <v>45201</v>
+      </c>
+      <c r="V3" s="156" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="194">
+        <v>2</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="195" t="s">
+        <v>544</v>
+      </c>
+      <c r="E4" s="195" t="s">
+        <v>550</v>
+      </c>
+      <c r="F4" s="199" t="s">
+        <v>551</v>
+      </c>
+      <c r="G4" s="195" t="s">
+        <v>538</v>
+      </c>
+      <c r="H4" s="195" t="s">
+        <v>449</v>
+      </c>
+      <c r="I4" s="195" t="s">
+        <v>412</v>
+      </c>
+      <c r="J4" s="195" t="s">
+        <v>411</v>
+      </c>
+      <c r="K4" s="195" t="s">
+        <v>549</v>
+      </c>
+      <c r="L4" s="195" t="s">
+        <v>547</v>
+      </c>
+      <c r="M4" s="195" t="s">
+        <v>259</v>
+      </c>
+      <c r="N4" s="195" t="s">
+        <v>427</v>
+      </c>
+      <c r="O4" s="194" t="s">
+        <v>546</v>
+      </c>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="194" t="s">
+        <v>542</v>
+      </c>
+      <c r="S4" s="196" t="s">
+        <v>543</v>
+      </c>
+      <c r="T4" s="194"/>
+      <c r="U4" s="196">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="194">
+        <v>6</v>
+      </c>
+      <c r="C5" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="195" t="s">
+        <v>408</v>
+      </c>
+      <c r="E5" s="195" t="s">
+        <v>409</v>
+      </c>
+      <c r="F5" s="195" t="s">
+        <v>409</v>
+      </c>
+      <c r="G5" s="195" t="s">
+        <v>410</v>
+      </c>
+      <c r="H5" s="195" t="s">
+        <v>413</v>
+      </c>
+      <c r="I5" s="195" t="s">
+        <v>449</v>
+      </c>
+      <c r="J5" s="195"/>
+      <c r="K5" s="195" t="s">
+        <v>564</v>
+      </c>
+      <c r="L5" s="195" t="s">
+        <v>562</v>
+      </c>
+      <c r="M5" s="195" t="s">
+        <v>259</v>
+      </c>
+      <c r="N5" s="195" t="s">
+        <v>541</v>
+      </c>
+      <c r="O5" s="194" t="s">
+        <v>563</v>
+      </c>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194" t="s">
+        <v>416</v>
+      </c>
+      <c r="S5" s="196" t="s">
+        <v>482</v>
+      </c>
+      <c r="T5" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="U5" s="196">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="194">
+        <v>4</v>
+      </c>
+      <c r="C6" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="195" t="s">
         <v>556</v>
       </c>
-      <c r="F2" s="210" t="s">
-        <v>389</v>
-      </c>
-      <c r="G2" s="211" t="s">
-        <v>402</v>
-      </c>
-      <c r="H2" s="212" t="s">
-        <v>392</v>
-      </c>
-      <c r="I2" s="212" t="s">
-        <v>403</v>
-      </c>
-      <c r="J2" s="212" t="s">
-        <v>541</v>
-      </c>
-      <c r="K2" s="212" t="s">
-        <v>390</v>
-      </c>
-      <c r="L2" s="212" t="s">
-        <v>391</v>
-      </c>
-      <c r="M2" s="212" t="s">
-        <v>394</v>
-      </c>
-      <c r="N2" s="213" t="s">
-        <v>404</v>
-      </c>
-      <c r="O2" s="219"/>
-      <c r="P2" s="214" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q2" s="215" t="s">
-        <v>397</v>
-      </c>
-      <c r="R2" s="216" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2" s="217" t="s">
-        <v>399</v>
-      </c>
-      <c r="T2" s="216" t="s">
-        <v>415</v>
-      </c>
-      <c r="U2" s="218"/>
-    </row>
-    <row r="3" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="220">
-        <v>1</v>
-      </c>
-      <c r="B3" s="225" t="s">
-        <v>535</v>
-      </c>
-      <c r="C3" s="156" t="s">
-        <v>490</v>
-      </c>
-      <c r="D3" s="221" t="s">
-        <v>537</v>
-      </c>
-      <c r="E3" s="221" t="s">
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="195" t="s">
+        <v>410</v>
+      </c>
+      <c r="H6" s="195" t="s">
+        <v>411</v>
+      </c>
+      <c r="I6" s="195" t="s">
+        <v>449</v>
+      </c>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195" t="s">
+        <v>555</v>
+      </c>
+      <c r="L6" s="200"/>
+      <c r="M6" s="195" t="s">
+        <v>259</v>
+      </c>
+      <c r="N6" s="195"/>
+      <c r="O6" s="194" t="s">
+        <v>563</v>
+      </c>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="195"/>
+      <c r="R6" s="194" t="s">
+        <v>542</v>
+      </c>
+      <c r="S6" s="196" t="s">
+        <v>543</v>
+      </c>
+      <c r="T6" s="194"/>
+      <c r="U6" s="196">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="194">
+        <v>7</v>
+      </c>
+      <c r="C7" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="195" t="s">
+        <v>565</v>
+      </c>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="195" t="s">
+        <v>410</v>
+      </c>
+      <c r="H7" s="195" t="s">
+        <v>411</v>
+      </c>
+      <c r="I7" s="195" t="s">
+        <v>449</v>
+      </c>
+      <c r="J7" s="194"/>
+      <c r="K7" s="195" t="s">
+        <v>568</v>
+      </c>
+      <c r="L7" s="200"/>
+      <c r="M7" s="195" t="s">
+        <v>259</v>
+      </c>
+      <c r="N7" s="194"/>
+      <c r="O7" s="194" t="s">
+        <v>566</v>
+      </c>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="194"/>
+      <c r="R7" s="194"/>
+      <c r="S7" s="194"/>
+      <c r="T7" s="194"/>
+      <c r="U7" s="194"/>
+      <c r="V7" s="156" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="194">
+        <v>9</v>
+      </c>
+      <c r="C8" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="195" t="s">
+        <v>565</v>
+      </c>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="195" t="s">
+        <v>410</v>
+      </c>
+      <c r="H8" s="195" t="s">
+        <v>411</v>
+      </c>
+      <c r="I8" s="195" t="s">
+        <v>449</v>
+      </c>
+      <c r="J8" s="194"/>
+      <c r="K8" s="195" t="s">
+        <v>568</v>
+      </c>
+      <c r="L8" s="200"/>
+      <c r="M8" s="195" t="s">
+        <v>259</v>
+      </c>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194" t="s">
+        <v>569</v>
+      </c>
+      <c r="P8" s="194"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="194"/>
+      <c r="S8" s="194"/>
+      <c r="T8" s="194"/>
+      <c r="U8" s="194"/>
+    </row>
+    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="194">
+        <v>5</v>
+      </c>
+      <c r="C9" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="195" t="s">
+        <v>557</v>
+      </c>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="195" t="s">
         <v>538</v>
       </c>
-      <c r="F3" s="221" t="s">
-        <v>539</v>
-      </c>
-      <c r="G3" s="221" t="s">
-        <v>542</v>
-      </c>
-      <c r="H3" s="221" t="s">
+      <c r="H9" s="195" t="s">
         <v>449</v>
       </c>
-      <c r="I3" s="221" t="s">
+      <c r="I9" s="195" t="s">
         <v>412</v>
       </c>
-      <c r="J3" s="221" t="s">
+      <c r="J9" s="195" t="s">
         <v>411</v>
       </c>
-      <c r="K3" s="221" t="s">
-        <v>543</v>
-      </c>
-      <c r="L3" s="221" t="s">
-        <v>552</v>
-      </c>
-      <c r="M3" s="221" t="s">
+      <c r="K9" s="195" t="s">
+        <v>559</v>
+      </c>
+      <c r="L9" s="200"/>
+      <c r="M9" s="195" t="s">
         <v>259</v>
       </c>
-      <c r="N3" s="156" t="s">
-        <v>577</v>
-      </c>
-      <c r="O3" s="220" t="s">
+      <c r="N9" s="195"/>
+      <c r="O9" s="194" t="s">
+        <v>558</v>
+      </c>
+      <c r="P9" s="195"/>
+      <c r="Q9" s="195"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+    </row>
+    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="194">
+        <v>10</v>
+      </c>
+      <c r="C10" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="195" t="s">
+        <v>557</v>
+      </c>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="195" t="s">
+        <v>538</v>
+      </c>
+      <c r="H10" s="195" t="s">
+        <v>449</v>
+      </c>
+      <c r="I10" s="195" t="s">
+        <v>412</v>
+      </c>
+      <c r="J10" s="195" t="s">
+        <v>411</v>
+      </c>
+      <c r="K10" s="195" t="s">
+        <v>560</v>
+      </c>
+      <c r="L10" s="200"/>
+      <c r="M10" s="195" t="s">
+        <v>259</v>
+      </c>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194" t="s">
+        <v>572</v>
+      </c>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="194"/>
+    </row>
+    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="194">
+        <v>3</v>
+      </c>
+      <c r="C11" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D11" s="195" t="s">
+        <v>554</v>
+      </c>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="195" t="s">
+        <v>410</v>
+      </c>
+      <c r="H11" s="195" t="s">
+        <v>411</v>
+      </c>
+      <c r="I11" s="195" t="s">
+        <v>449</v>
+      </c>
+      <c r="K11" s="195" t="s">
+        <v>561</v>
+      </c>
+      <c r="L11" s="200"/>
+      <c r="M11" s="195" t="s">
+        <v>259</v>
+      </c>
+      <c r="N11" s="195" t="s">
+        <v>545</v>
+      </c>
+      <c r="O11" s="194" t="s">
+        <v>553</v>
+      </c>
+      <c r="P11" s="195"/>
+      <c r="Q11" s="195"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="194"/>
+    </row>
+    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="194">
+        <v>8</v>
+      </c>
+      <c r="C12" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="195" t="s">
+        <v>570</v>
+      </c>
+      <c r="E12" s="200"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="195" t="s">
+        <v>410</v>
+      </c>
+      <c r="H12" s="195" t="s">
+        <v>411</v>
+      </c>
+      <c r="I12" s="195" t="s">
+        <v>449</v>
+      </c>
+      <c r="K12" s="195" t="s">
         <v>540</v>
       </c>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="220" t="s">
-        <v>546</v>
-      </c>
-      <c r="S3" s="222" t="s">
-        <v>547</v>
-      </c>
-      <c r="T3" s="220"/>
-      <c r="U3" s="222">
-        <v>45201</v>
-      </c>
-      <c r="V3" s="156" t="s">
+      <c r="L12" s="200"/>
+      <c r="M12" s="195" t="s">
+        <v>259</v>
+      </c>
+      <c r="N12" s="194" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="220">
-        <v>2</v>
-      </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="156" t="s">
-        <v>498</v>
-      </c>
-      <c r="D4" s="221" t="s">
-        <v>548</v>
-      </c>
-      <c r="E4" s="221" t="s">
-        <v>554</v>
-      </c>
-      <c r="F4" s="226" t="s">
-        <v>555</v>
-      </c>
-      <c r="G4" s="221" t="s">
-        <v>542</v>
-      </c>
-      <c r="H4" s="221" t="s">
-        <v>449</v>
-      </c>
-      <c r="I4" s="221" t="s">
-        <v>412</v>
-      </c>
-      <c r="J4" s="221" t="s">
-        <v>411</v>
-      </c>
-      <c r="K4" s="221" t="s">
+      <c r="O12" s="194" t="s">
         <v>553</v>
       </c>
-      <c r="L4" s="221" t="s">
-        <v>551</v>
-      </c>
-      <c r="M4" s="221" t="s">
-        <v>259</v>
-      </c>
-      <c r="N4" s="221" t="s">
-        <v>427</v>
-      </c>
-      <c r="O4" s="220" t="s">
-        <v>550</v>
-      </c>
-      <c r="P4" s="221"/>
-      <c r="Q4" s="221"/>
-      <c r="R4" s="220" t="s">
-        <v>546</v>
-      </c>
-      <c r="S4" s="222" t="s">
-        <v>547</v>
-      </c>
-      <c r="T4" s="220"/>
-      <c r="U4" s="222">
-        <v>45201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="220">
-        <v>6</v>
-      </c>
-      <c r="B5" s="225"/>
-      <c r="C5" s="156" t="s">
-        <v>407</v>
-      </c>
-      <c r="D5" s="221" t="s">
-        <v>408</v>
-      </c>
-      <c r="E5" s="221" t="s">
-        <v>409</v>
-      </c>
-      <c r="F5" s="221" t="s">
-        <v>409</v>
-      </c>
-      <c r="G5" s="221" t="s">
-        <v>410</v>
-      </c>
-      <c r="H5" s="221" t="s">
-        <v>413</v>
-      </c>
-      <c r="I5" s="221" t="s">
-        <v>449</v>
-      </c>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221" t="s">
-        <v>568</v>
-      </c>
-      <c r="L5" s="221" t="s">
-        <v>566</v>
-      </c>
-      <c r="M5" s="221" t="s">
-        <v>259</v>
-      </c>
-      <c r="N5" s="221" t="s">
-        <v>545</v>
-      </c>
-      <c r="O5" s="220" t="s">
-        <v>567</v>
-      </c>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="220" t="s">
-        <v>416</v>
-      </c>
-      <c r="S5" s="222" t="s">
-        <v>482</v>
-      </c>
-      <c r="T5" s="220" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" s="222">
-        <v>45201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A6" s="220">
-        <v>4</v>
-      </c>
-      <c r="B6" s="225"/>
-      <c r="C6" s="156" t="s">
-        <v>331</v>
-      </c>
-      <c r="D6" s="221" t="s">
-        <v>560</v>
-      </c>
-      <c r="E6" s="227"/>
-      <c r="F6" s="227"/>
-      <c r="G6" s="221" t="s">
-        <v>410</v>
-      </c>
-      <c r="H6" s="221" t="s">
-        <v>411</v>
-      </c>
-      <c r="I6" s="221" t="s">
-        <v>449</v>
-      </c>
-      <c r="J6" s="221"/>
-      <c r="K6" s="221" t="s">
-        <v>559</v>
-      </c>
-      <c r="L6" s="227"/>
-      <c r="M6" s="221" t="s">
-        <v>259</v>
-      </c>
-      <c r="N6" s="221"/>
-      <c r="O6" s="220" t="s">
-        <v>567</v>
-      </c>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="220" t="s">
-        <v>546</v>
-      </c>
-      <c r="S6" s="222" t="s">
-        <v>547</v>
-      </c>
-      <c r="T6" s="220"/>
-      <c r="U6" s="222">
-        <v>45201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="220">
-        <v>7</v>
-      </c>
-      <c r="B7" s="225"/>
-      <c r="C7" s="156" t="s">
-        <v>496</v>
-      </c>
-      <c r="D7" s="228" t="s">
-        <v>569</v>
-      </c>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="221" t="s">
-        <v>410</v>
-      </c>
-      <c r="H7" s="221" t="s">
-        <v>411</v>
-      </c>
-      <c r="I7" s="221" t="s">
-        <v>449</v>
-      </c>
-      <c r="J7" s="220"/>
-      <c r="K7" s="228" t="s">
-        <v>572</v>
-      </c>
-      <c r="L7" s="227"/>
-      <c r="M7" s="221" t="s">
-        <v>259</v>
-      </c>
-      <c r="N7" s="220"/>
-      <c r="O7" s="220" t="s">
-        <v>570</v>
-      </c>
-      <c r="P7" s="220"/>
-      <c r="Q7" s="220"/>
-      <c r="R7" s="220"/>
-      <c r="S7" s="220"/>
-      <c r="T7" s="220"/>
-      <c r="U7" s="220"/>
-      <c r="V7" s="156" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="220">
-        <v>9</v>
-      </c>
-      <c r="B8" s="225"/>
-      <c r="C8" s="156" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="228" t="s">
-        <v>569</v>
-      </c>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="221" t="s">
-        <v>410</v>
-      </c>
-      <c r="H8" s="221" t="s">
-        <v>411</v>
-      </c>
-      <c r="I8" s="221" t="s">
-        <v>449</v>
-      </c>
-      <c r="J8" s="220"/>
-      <c r="K8" s="228" t="s">
-        <v>572</v>
-      </c>
-      <c r="L8" s="227"/>
-      <c r="M8" s="221" t="s">
-        <v>259</v>
-      </c>
-      <c r="N8" s="220"/>
-      <c r="O8" s="220" t="s">
-        <v>573</v>
-      </c>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="220"/>
-      <c r="S8" s="220"/>
-      <c r="T8" s="220"/>
-      <c r="U8" s="220"/>
-    </row>
-    <row r="9" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="220">
-        <v>5</v>
-      </c>
-      <c r="B9" s="225"/>
-      <c r="C9" s="156" t="s">
-        <v>488</v>
-      </c>
-      <c r="D9" s="221" t="s">
-        <v>561</v>
-      </c>
-      <c r="E9" s="227"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="221" t="s">
-        <v>542</v>
-      </c>
-      <c r="H9" s="221" t="s">
-        <v>449</v>
-      </c>
-      <c r="I9" s="221" t="s">
-        <v>412</v>
-      </c>
-      <c r="J9" s="221" t="s">
-        <v>411</v>
-      </c>
-      <c r="K9" s="221" t="s">
-        <v>563</v>
-      </c>
-      <c r="L9" s="227"/>
-      <c r="M9" s="221" t="s">
-        <v>259</v>
-      </c>
-      <c r="N9" s="221"/>
-      <c r="O9" s="220" t="s">
-        <v>562</v>
-      </c>
-      <c r="P9" s="221"/>
-      <c r="Q9" s="221"/>
-      <c r="R9" s="220"/>
-      <c r="S9" s="220"/>
-      <c r="T9" s="220"/>
-      <c r="U9" s="220"/>
-    </row>
-    <row r="10" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="220">
-        <v>10</v>
-      </c>
-      <c r="B10" s="225"/>
-      <c r="C10" s="156" t="s">
-        <v>332</v>
-      </c>
-      <c r="D10" s="221" t="s">
-        <v>561</v>
-      </c>
-      <c r="E10" s="227"/>
-      <c r="F10" s="227"/>
-      <c r="G10" s="221" t="s">
-        <v>542</v>
-      </c>
-      <c r="H10" s="221" t="s">
-        <v>449</v>
-      </c>
-      <c r="I10" s="221" t="s">
-        <v>412</v>
-      </c>
-      <c r="J10" s="221" t="s">
-        <v>411</v>
-      </c>
-      <c r="K10" s="221" t="s">
-        <v>564</v>
-      </c>
-      <c r="L10" s="227"/>
-      <c r="M10" s="221" t="s">
-        <v>259</v>
-      </c>
-      <c r="N10" s="220"/>
-      <c r="O10" s="220" t="s">
-        <v>576</v>
-      </c>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="220"/>
-      <c r="R10" s="220"/>
-      <c r="S10" s="220"/>
-      <c r="T10" s="220"/>
-      <c r="U10" s="220"/>
-    </row>
-    <row r="11" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="220">
-        <v>3</v>
-      </c>
-      <c r="B11" s="225"/>
-      <c r="C11" s="156" t="s">
-        <v>489</v>
-      </c>
-      <c r="D11" s="221" t="s">
-        <v>558</v>
-      </c>
-      <c r="E11" s="227"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="221" t="s">
-        <v>410</v>
-      </c>
-      <c r="H11" s="221" t="s">
-        <v>411</v>
-      </c>
-      <c r="I11" s="221" t="s">
-        <v>449</v>
-      </c>
-      <c r="K11" s="221" t="s">
-        <v>565</v>
-      </c>
-      <c r="L11" s="227"/>
-      <c r="M11" s="221" t="s">
-        <v>259</v>
-      </c>
-      <c r="N11" s="221" t="s">
-        <v>549</v>
-      </c>
-      <c r="O11" s="220" t="s">
-        <v>557</v>
-      </c>
-      <c r="P11" s="221"/>
-      <c r="Q11" s="221"/>
-      <c r="R11" s="220"/>
-      <c r="S11" s="220"/>
-      <c r="T11" s="220"/>
-      <c r="U11" s="220"/>
-    </row>
-    <row r="12" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="220">
-        <v>8</v>
-      </c>
-      <c r="B12" s="225"/>
-      <c r="C12" s="156" t="s">
-        <v>520</v>
-      </c>
-      <c r="D12" s="221" t="s">
-        <v>574</v>
-      </c>
-      <c r="E12" s="227"/>
-      <c r="F12" s="227"/>
-      <c r="G12" s="221" t="s">
-        <v>410</v>
-      </c>
-      <c r="H12" s="221" t="s">
-        <v>411</v>
-      </c>
-      <c r="I12" s="221" t="s">
-        <v>449</v>
-      </c>
-      <c r="K12" s="221" t="s">
-        <v>544</v>
-      </c>
-      <c r="L12" s="227"/>
-      <c r="M12" s="228" t="s">
-        <v>259</v>
-      </c>
-      <c r="N12" s="220" t="s">
-        <v>575</v>
-      </c>
-      <c r="O12" s="220" t="s">
-        <v>557</v>
-      </c>
-      <c r="P12" s="220"/>
-      <c r="Q12" s="220"/>
-      <c r="R12" s="220"/>
-      <c r="S12" s="220"/>
-      <c r="T12" s="220"/>
-      <c r="U12" s="220"/>
-    </row>
-    <row r="13" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="220">
+      <c r="P12" s="194"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="194"/>
+      <c r="S12" s="194"/>
+      <c r="T12" s="194"/>
+      <c r="U12" s="194"/>
+    </row>
+    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="194">
         <v>11</v>
       </c>
       <c r="B13" s="156" t="s">
-        <v>536</v>
-      </c>
-      <c r="C13" s="156" t="s">
-        <v>530</v>
-      </c>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="220"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="220"/>
-      <c r="R13" s="220"/>
-      <c r="S13" s="220"/>
-      <c r="T13" s="220"/>
-      <c r="U13" s="220"/>
-    </row>
-    <row r="14" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="220">
+        <v>532</v>
+      </c>
+      <c r="C13" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="194"/>
+      <c r="S13" s="194"/>
+      <c r="T13" s="194"/>
+      <c r="U13" s="194"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="194">
         <v>12</v>
       </c>
-      <c r="C14" s="156" t="s">
-        <v>531</v>
-      </c>
-      <c r="D14" s="220"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="220"/>
-      <c r="H14" s="220"/>
-      <c r="I14" s="220"/>
-      <c r="J14" s="220"/>
-      <c r="K14" s="220"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="220"/>
-      <c r="O14" s="220"/>
-      <c r="P14" s="220"/>
-      <c r="Q14" s="220"/>
-      <c r="R14" s="220"/>
-      <c r="S14" s="220"/>
-      <c r="T14" s="220"/>
-      <c r="U14" s="220"/>
-    </row>
-    <row r="15" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="220">
+      <c r="C14" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="194"/>
+      <c r="Q14" s="194"/>
+      <c r="R14" s="194"/>
+      <c r="S14" s="194"/>
+      <c r="T14" s="194"/>
+      <c r="U14" s="194"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="194">
         <v>13</v>
       </c>
-      <c r="C15" s="156" t="s">
-        <v>532</v>
-      </c>
-      <c r="D15" s="220"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="220"/>
-      <c r="O15" s="220"/>
-      <c r="P15" s="220"/>
-      <c r="Q15" s="220"/>
-      <c r="R15" s="220"/>
-      <c r="S15" s="220"/>
-      <c r="T15" s="220"/>
-      <c r="U15" s="220"/>
-    </row>
-    <row r="16" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="220">
+      <c r="C15" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="194"/>
+      <c r="Q15" s="194"/>
+      <c r="R15" s="194"/>
+      <c r="S15" s="194"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="194"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="194">
         <v>14</v>
       </c>
-      <c r="C16" s="156" t="s">
-        <v>533</v>
-      </c>
-      <c r="D16" s="220"/>
-      <c r="E16" s="220"/>
-      <c r="F16" s="220"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="220"/>
-      <c r="I16" s="220"/>
-      <c r="J16" s="220"/>
-      <c r="K16" s="220"/>
-      <c r="L16" s="220"/>
-      <c r="M16" s="220"/>
-      <c r="N16" s="220"/>
-      <c r="O16" s="220"/>
-      <c r="P16" s="220"/>
-      <c r="Q16" s="220"/>
-      <c r="R16" s="220"/>
-      <c r="S16" s="220"/>
-      <c r="T16" s="220"/>
-      <c r="U16" s="220"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17" s="220">
+      <c r="C16" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="194"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="194"/>
+      <c r="S16" s="194"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="194">
         <v>15</v>
       </c>
-      <c r="C17" s="156" t="s">
-        <v>534</v>
-      </c>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="220"/>
-      <c r="G17" s="220"/>
-      <c r="H17" s="220"/>
-      <c r="I17" s="220"/>
-      <c r="J17" s="220"/>
-      <c r="K17" s="220"/>
-      <c r="L17" s="220"/>
-      <c r="M17" s="220"/>
-      <c r="N17" s="220"/>
-      <c r="O17" s="220"/>
-      <c r="P17" s="220"/>
-      <c r="Q17" s="220"/>
-      <c r="R17" s="220"/>
-      <c r="S17" s="220"/>
-      <c r="T17" s="220"/>
-      <c r="U17" s="220"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A18" s="220">
+      <c r="C17" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="194"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="194">
         <v>16</v>
       </c>
       <c r="B18" s="156" t="s">
-        <v>526</v>
-      </c>
-      <c r="C18" s="156" t="s">
-        <v>525</v>
-      </c>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="220"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="220"/>
-      <c r="N18" s="220"/>
-      <c r="O18" s="220"/>
-      <c r="P18" s="220"/>
-      <c r="Q18" s="220"/>
-      <c r="R18" s="220"/>
-      <c r="S18" s="220"/>
-      <c r="T18" s="220"/>
-      <c r="U18" s="220"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A19" s="220">
+        <v>522</v>
+      </c>
+      <c r="C18" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="194"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="194">
         <v>17</v>
       </c>
-      <c r="C19" s="156" t="s">
-        <v>527</v>
-      </c>
-      <c r="D19" s="220"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
-      <c r="I19" s="220"/>
-      <c r="J19" s="220"/>
-      <c r="K19" s="220"/>
-      <c r="L19" s="220"/>
-      <c r="M19" s="220"/>
-      <c r="N19" s="220"/>
-      <c r="O19" s="220"/>
-      <c r="P19" s="220"/>
-      <c r="Q19" s="220"/>
-      <c r="R19" s="220"/>
-      <c r="S19" s="220"/>
-      <c r="T19" s="220"/>
-      <c r="U19" s="220"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A20" s="220">
+      <c r="C19" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="194">
         <v>18</v>
       </c>
-      <c r="C20" s="156" t="s">
-        <v>528</v>
-      </c>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
+      <c r="C20" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
       <c r="F20" s="181"/>
       <c r="G20" s="181"/>
       <c r="H20" s="181"/>
       <c r="I20" s="181"/>
       <c r="J20" s="181"/>
-      <c r="K20" s="220"/>
-      <c r="L20" s="220"/>
-      <c r="M20" s="220"/>
-      <c r="N20" s="220"/>
-      <c r="O20" s="220"/>
-      <c r="P20" s="220"/>
-      <c r="Q20" s="220"/>
-      <c r="R20" s="220"/>
-      <c r="S20" s="220"/>
-      <c r="T20" s="220"/>
-      <c r="U20" s="220"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A21" s="220">
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="194"/>
+      <c r="Q20" s="194"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="194"/>
+      <c r="U20" s="194"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="194">
         <v>19</v>
       </c>
-      <c r="C21" s="156" t="s">
-        <v>529</v>
-      </c>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="220"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="220"/>
-      <c r="L21" s="220"/>
-      <c r="M21" s="220"/>
-      <c r="N21" s="220"/>
-      <c r="O21" s="220"/>
-      <c r="P21" s="220"/>
-      <c r="Q21" s="220"/>
-      <c r="R21" s="220"/>
-      <c r="S21" s="220"/>
-      <c r="T21" s="220"/>
-      <c r="U21" s="220"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A22" s="220">
+      <c r="C21" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="194"/>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="194">
         <v>20</v>
       </c>
       <c r="B22" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="156" t="s">
-        <v>521</v>
-      </c>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="220"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="220"/>
-      <c r="L22" s="220"/>
-      <c r="M22" s="220"/>
-      <c r="N22" s="220"/>
-      <c r="O22" s="220"/>
-      <c r="P22" s="220"/>
-      <c r="Q22" s="220"/>
-      <c r="R22" s="220"/>
-      <c r="S22" s="220"/>
-      <c r="T22" s="220"/>
-      <c r="U22" s="220"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A23" s="220">
+      <c r="C22" s="185" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="194"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="194"/>
+      <c r="T22" s="194"/>
+      <c r="U22" s="194"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="194">
         <v>21</v>
       </c>
-      <c r="C23" s="156" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A24" s="220">
+      <c r="C23" s="185" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="194">
         <v>22</v>
       </c>
-      <c r="C24" s="156" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A25" s="220">
+      <c r="C24" s="185" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="194">
         <v>23</v>
       </c>
-      <c r="C25" s="156" t="s">
-        <v>524</v>
-      </c>
+      <c r="C25" s="185" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="156" t="s">
+        <v>574</v>
+      </c>
+      <c r="C33" s="178" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="178" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="178" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="202" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="202" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="202" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="202" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="202" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="202" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="202" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="202" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="202" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="202" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="202" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="202" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="202" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="202" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="202" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="202" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="202" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="202" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="202" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C55" s="202" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="202" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="202" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="202" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="202" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="202" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="202"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="202"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="202"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="202"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="202"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="202"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C67" s="202"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9431,17 +9982,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC73E8D-D204-4DD0-94CC-73EF61230586}">
   <dimension ref="B1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B5" activeCellId="2" sqref="B2 B4 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>478</v>
       </c>
@@ -9449,7 +10000,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="163" t="s">
         <v>414</v>
       </c>
@@ -9457,30 +10008,30 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="163" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="163" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="163" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="71.650000000000006" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="229" t="s">
+    <row r="6" spans="2:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="201" t="s">
         <v>472</v>
       </c>
       <c r="D6" s="155" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="163" t="s">
         <v>473</v>
       </c>
@@ -9488,35 +10039,35 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="229" t="s">
+    <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="201" t="s">
         <v>474</v>
       </c>
       <c r="D8" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="163" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="163" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="163" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="163" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="178" t="s">
         <v>484</v>
       </c>
@@ -9534,9 +10085,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>480</v>
       </c>
@@ -9554,19 +10105,19 @@
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.265625" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="160" t="s">
         <v>90</v>
       </c>
@@ -9589,7 +10140,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="168" t="s">
         <v>93</v>
       </c>
@@ -9612,7 +10163,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="168" t="s">
         <v>93</v>
       </c>
@@ -9635,7 +10186,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="168" t="s">
         <v>93</v>
       </c>
@@ -9654,7 +10205,7 @@
       <c r="G4" s="156"/>
       <c r="H4" s="157"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="168" t="s">
         <v>93</v>
       </c>
@@ -9673,7 +10224,7 @@
       <c r="G5" s="156"/>
       <c r="H5" s="157"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="177" t="s">
         <v>416</v>
       </c>
@@ -9692,7 +10243,7 @@
       <c r="G6" s="156"/>
       <c r="H6" s="157"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="177" t="s">
         <v>416</v>
       </c>
@@ -9711,7 +10262,7 @@
       <c r="G7" s="156"/>
       <c r="H7" s="157"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="177" t="s">
         <v>416</v>
       </c>
@@ -9730,7 +10281,7 @@
       <c r="G8" s="156"/>
       <c r="H8" s="157"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="177" t="s">
         <v>416</v>
       </c>
@@ -9749,7 +10300,7 @@
       <c r="G9" s="156"/>
       <c r="H9" s="157"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="177" t="s">
         <v>416</v>
       </c>
@@ -9768,7 +10319,7 @@
       <c r="G10" s="156"/>
       <c r="H10" s="157"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="177" t="s">
         <v>416</v>
       </c>
@@ -9787,7 +10338,7 @@
       <c r="G11" s="156"/>
       <c r="H11" s="157"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="177" t="s">
         <v>416</v>
       </c>
@@ -9806,7 +10357,7 @@
       <c r="G12" s="156"/>
       <c r="H12" s="157"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="177" t="s">
         <v>416</v>
       </c>
@@ -9825,7 +10376,7 @@
       <c r="G13" s="156"/>
       <c r="H13" s="157"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="177" t="s">
         <v>416</v>
       </c>
@@ -9844,7 +10395,7 @@
       <c r="G14" s="156"/>
       <c r="H14" s="157"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="177" t="s">
         <v>416</v>
       </c>
@@ -9863,7 +10414,7 @@
       <c r="G15" s="156"/>
       <c r="H15" s="157"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="177" t="s">
         <v>416</v>
       </c>
@@ -9882,7 +10433,7 @@
       <c r="G16" s="156"/>
       <c r="H16" s="157"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="177" t="s">
         <v>416</v>
       </c>
@@ -9901,7 +10452,7 @@
       <c r="G17" s="156"/>
       <c r="H17" s="157"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="177" t="s">
         <v>416</v>
       </c>
@@ -9920,7 +10471,7 @@
       <c r="G18" s="156"/>
       <c r="H18" s="157"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="177" t="s">
         <v>416</v>
       </c>
@@ -9939,7 +10490,7 @@
       <c r="G19" s="156"/>
       <c r="H19" s="157"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="177" t="s">
         <v>416</v>
       </c>
@@ -9958,7 +10509,7 @@
       <c r="G20" s="156"/>
       <c r="H20" s="157"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="177" t="s">
         <v>416</v>
       </c>
@@ -9977,7 +10528,7 @@
       <c r="G21" s="156"/>
       <c r="H21" s="157"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="177" t="s">
         <v>416</v>
       </c>
@@ -9996,7 +10547,7 @@
       <c r="G22" s="156"/>
       <c r="H22" s="157"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="177" t="s">
         <v>416</v>
       </c>
@@ -10015,7 +10566,7 @@
       <c r="G23" s="156"/>
       <c r="H23" s="157"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="177" t="s">
         <v>416</v>
       </c>
@@ -10034,7 +10585,7 @@
       <c r="G24" s="156"/>
       <c r="H24" s="157"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="177" t="s">
         <v>416</v>
       </c>
@@ -10053,7 +10604,7 @@
       <c r="G25" s="156"/>
       <c r="H25" s="157"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="168" t="s">
         <v>416</v>
       </c>
@@ -10072,7 +10623,7 @@
       <c r="G26" s="156"/>
       <c r="H26" s="157"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="168" t="s">
         <v>416</v>
       </c>
@@ -10091,7 +10642,7 @@
       <c r="G27" s="156"/>
       <c r="H27" s="157"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="168" t="s">
         <v>416</v>
       </c>
@@ -10110,7 +10661,7 @@
       <c r="G28" s="156"/>
       <c r="H28" s="157"/>
     </row>
-    <row r="29" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="168" t="s">
         <v>416</v>
       </c>
@@ -10129,7 +10680,7 @@
       <c r="G29" s="158"/>
       <c r="H29" s="159"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="168" t="s">
         <v>416</v>
       </c>
@@ -10148,7 +10699,7 @@
       <c r="G30" s="156"/>
       <c r="H30" s="156"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="168" t="s">
         <v>416</v>
       </c>
@@ -10167,7 +10718,7 @@
       <c r="G31" s="156"/>
       <c r="H31" s="156"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="168" t="s">
         <v>416</v>
       </c>
@@ -10186,7 +10737,7 @@
       <c r="G32" s="156"/>
       <c r="H32" s="157"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="168" t="s">
         <v>416</v>
       </c>
@@ -10205,7 +10756,7 @@
       <c r="G33" s="156"/>
       <c r="H33" s="157"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="168" t="s">
         <v>416</v>
       </c>
@@ -10224,7 +10775,7 @@
       <c r="G34" s="156"/>
       <c r="H34" s="157"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="168" t="s">
         <v>416</v>
       </c>
@@ -10243,7 +10794,7 @@
       <c r="G35" s="156"/>
       <c r="H35" s="157"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="168" t="s">
         <v>416</v>
       </c>
@@ -10262,7 +10813,7 @@
       <c r="G36" s="156"/>
       <c r="H36" s="157"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="168" t="s">
         <v>416</v>
       </c>
@@ -10281,7 +10832,7 @@
       <c r="G37" s="156"/>
       <c r="H37" s="157"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="168" t="s">
         <v>416</v>
       </c>
@@ -10300,7 +10851,7 @@
       <c r="G38" s="156"/>
       <c r="H38" s="157"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="168" t="s">
         <v>416</v>
       </c>
@@ -10319,7 +10870,7 @@
       <c r="G39" s="156"/>
       <c r="H39" s="157"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="168" t="s">
         <v>416</v>
       </c>
@@ -10338,7 +10889,7 @@
       <c r="G40" s="156"/>
       <c r="H40" s="156"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="168" t="s">
         <v>416</v>
       </c>
@@ -10357,7 +10908,7 @@
       <c r="G41" s="156"/>
       <c r="H41" s="156"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="168" t="s">
         <v>416</v>
       </c>
@@ -10376,7 +10927,7 @@
       <c r="G42" s="156"/>
       <c r="H42" s="156"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="168" t="s">
         <v>416</v>
       </c>
@@ -10395,7 +10946,7 @@
       <c r="G43" s="156"/>
       <c r="H43" s="156"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="168" t="s">
         <v>416</v>
       </c>
@@ -10414,7 +10965,7 @@
       <c r="G44" s="156"/>
       <c r="H44" s="156"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="168" t="s">
         <v>416</v>
       </c>
@@ -10433,7 +10984,7 @@
       <c r="G45" s="156"/>
       <c r="H45" s="156"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="168" t="s">
         <v>416</v>
       </c>
@@ -10452,7 +11003,7 @@
       <c r="G46" s="156"/>
       <c r="H46" s="156"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="168" t="s">
         <v>416</v>
       </c>
@@ -10471,7 +11022,7 @@
       <c r="G47" s="156"/>
       <c r="H47" s="156"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="168" t="s">
         <v>416</v>
       </c>
@@ -10490,7 +11041,7 @@
       <c r="G48" s="156"/>
       <c r="H48" s="156"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="168" t="s">
         <v>416</v>
       </c>
@@ -10509,7 +11060,7 @@
       <c r="G49" s="156"/>
       <c r="H49" s="156"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="168" t="s">
         <v>416</v>
       </c>
@@ -10528,7 +11079,7 @@
       <c r="G50" s="156"/>
       <c r="H50" s="156"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="168" t="s">
         <v>416</v>
       </c>
@@ -10547,7 +11098,7 @@
       <c r="G51" s="156"/>
       <c r="H51" s="156"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="168" t="s">
         <v>416</v>
       </c>
@@ -10566,7 +11117,7 @@
       <c r="G52" s="156"/>
       <c r="H52" s="156"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B53" s="168" t="s">
         <v>416</v>
       </c>
@@ -10585,7 +11136,7 @@
       <c r="G53" s="156"/>
       <c r="H53" s="156"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="168" t="s">
         <v>416</v>
       </c>
@@ -10604,7 +11155,7 @@
       <c r="G54" s="156"/>
       <c r="H54" s="156"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B55" s="168" t="s">
         <v>416</v>
       </c>
@@ -10623,7 +11174,7 @@
       <c r="G55" s="156"/>
       <c r="H55" s="156"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="168" t="s">
         <v>416</v>
       </c>
@@ -10642,7 +11193,7 @@
       <c r="G56" s="156"/>
       <c r="H56" s="156"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B57" s="168" t="s">
         <v>416</v>
       </c>
@@ -10661,7 +11212,7 @@
       <c r="G57" s="156"/>
       <c r="H57" s="156"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="168" t="s">
         <v>416</v>
       </c>
@@ -10680,7 +11231,7 @@
       <c r="G58" s="156"/>
       <c r="H58" s="156"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B59" s="168" t="s">
         <v>416</v>
       </c>
@@ -10699,7 +11250,7 @@
       <c r="G59" s="156"/>
       <c r="H59" s="156"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="168" t="s">
         <v>416</v>
       </c>
@@ -10718,7 +11269,7 @@
       <c r="G60" s="156"/>
       <c r="H60" s="156"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B61" s="168" t="s">
         <v>416</v>
       </c>
@@ -10750,16 +11301,16 @@
       <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="146" t="s">
         <v>258</v>
       </c>
@@ -10773,112 +11324,112 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>160</v>
       </c>
@@ -10899,14 +11450,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="4" width="52.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="141" t="s">
         <v>168</v>
       </c>
@@ -10917,87 +11468,87 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>165</v>
       </c>
@@ -11018,32 +11569,32 @@
       <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.86328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.86328125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.86328125" style="1"/>
+    <col min="20" max="20" width="36.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.88671875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -11064,59 +11615,59 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="220" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="198" t="s">
+      <c r="D2" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="220" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="198" t="s">
+      <c r="F2" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="198" t="s">
+      <c r="G2" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="200" t="s">
+      <c r="H2" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="198" t="s">
+      <c r="I2" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="202" t="s">
+      <c r="J2" s="224" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="204"/>
-      <c r="T2" s="194" t="s">
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="225"/>
+      <c r="O2" s="225"/>
+      <c r="P2" s="225"/>
+      <c r="Q2" s="225"/>
+      <c r="R2" s="225"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="216" t="s">
         <v>24</v>
       </c>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="199"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="221"/>
       <c r="J3" s="32" t="s">
         <v>22</v>
       </c>
@@ -11147,7 +11698,7 @@
       <c r="S3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="195"/>
+      <c r="T3" s="217"/>
       <c r="U3" s="5"/>
       <c r="V3" s="6"/>
       <c r="W3" s="7"/>
@@ -11155,7 +11706,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="34">
         <v>1</v>
@@ -11220,7 +11771,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="42">
         <v>2</v>
@@ -11285,7 +11836,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="42">
         <v>3</v>
@@ -11350,7 +11901,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="42">
         <v>4</v>
@@ -11415,7 +11966,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="42">
         <v>5</v>
@@ -11480,7 +12031,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="42">
         <v>6</v>
@@ -11545,7 +12096,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="44">
         <v>7</v>
@@ -11610,7 +12161,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="34">
         <v>8</v>
@@ -11675,7 +12226,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="42">
         <v>9</v>
@@ -11740,7 +12291,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -11805,7 +12356,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="44">
         <v>11</v>
@@ -11870,7 +12421,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:26" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="57">
         <v>12</v>
@@ -11916,7 +12467,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="64">
         <v>13</v>
@@ -11962,7 +12513,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="64">
         <v>14</v>
@@ -12008,7 +12559,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="64">
         <v>15</v>
@@ -12054,7 +12605,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="64">
         <v>16</v>
@@ -12100,7 +12651,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="91">
         <v>17</v>
@@ -12146,7 +12697,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="107">
         <v>18</v>
@@ -12192,7 +12743,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="115">
         <v>19</v>
@@ -12238,7 +12789,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="115">
         <v>20</v>
@@ -12284,7 +12835,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="117">
         <v>21</v>
@@ -12330,7 +12881,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="99">
         <v>22</v>
@@ -12376,7 +12927,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="76">
         <v>23</v>
@@ -12422,7 +12973,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="78">
         <v>24</v>
@@ -12468,7 +13019,7 @@
       <c r="U27" s="8"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="71">
         <v>25</v>
@@ -12514,7 +13065,7 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="76">
         <v>26</v>
@@ -12560,7 +13111,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="78">
         <v>27</v>
@@ -12606,7 +13157,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -12678,14 +13229,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="141" t="s">
         <v>168</v>
       </c>
@@ -12696,107 +13247,107 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="141" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="145" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="43.9" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="C25" s="145" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26" s="145" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" s="145" t="s">
         <v>307</v>
       </c>

--- a/Offline/BusinessManagement/Marketing/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/Marketing/MarketingMasterPlan-May-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DA6B2E-89FC-452A-ABA5-83B1F3C3B860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B05A3B-ADD8-4BE8-BF05-7D2D0F54170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="836" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="836" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingRatingSheet" sheetId="13" r:id="rId1"/>
@@ -24,11 +24,12 @@
     <sheet name="Generic" sheetId="17" r:id="rId9"/>
     <sheet name="Artworks" sheetId="12" r:id="rId10"/>
     <sheet name="RoadShows" sheetId="23" r:id="rId11"/>
-    <sheet name="MarketingPlan" sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="24" r:id="rId12"/>
+    <sheet name="MarketingPlan" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">MarketingPlan!$N$1:$P$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">MarketingPlan!$N$1:$P$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="635">
   <si>
     <t>Medium</t>
   </si>
@@ -1940,6 +1941,30 @@
   </si>
   <si>
     <t>Woodsquare Mall</t>
+  </si>
+  <si>
+    <t>CRM Followup</t>
+  </si>
+  <si>
+    <t>RSVP of Seminars</t>
+  </si>
+  <si>
+    <t>Deliver Seminars</t>
+  </si>
+  <si>
+    <t>Teacher's Profile</t>
+  </si>
+  <si>
+    <t>Course Fees</t>
+  </si>
+  <si>
+    <t>Seminar PPTs  --&gt; All Swimlanes</t>
+  </si>
+  <si>
+    <t>Visit Sheets (Pre CRM)</t>
+  </si>
+  <si>
+    <t>Misc</t>
   </si>
 </sst>
 </file>
@@ -6881,8 +6906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915E635A-68CA-4147-811F-424EF28651FA}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7114,6 +7139,64 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE84DDF1-DEE0-4E2B-8321-6AA75B5475A2}">
+  <dimension ref="B2:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>634</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
@@ -8084,7 +8167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C788D979-7CB4-4DA8-AE6B-ABB33AE1CBEA}">
   <dimension ref="A1:J68"/>
   <sheetViews>

--- a/Offline/BusinessManagement/Marketing/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/Marketing/MarketingMasterPlan-May-2023.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B05A3B-ADD8-4BE8-BF05-7D2D0F54170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C735CD66-6B02-47B2-92EC-B1FC07C7720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="836" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="836" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingRatingSheet" sheetId="13" r:id="rId1"/>
-    <sheet name="SchoolOutdoor" sheetId="19" r:id="rId2"/>
-    <sheet name="PitchMaterials" sheetId="21" r:id="rId3"/>
-    <sheet name="SeminarPlan" sheetId="22" r:id="rId4"/>
+    <sheet name="Institutes-Places" sheetId="18" r:id="rId2"/>
+    <sheet name="SchoolOutdoor" sheetId="19" r:id="rId3"/>
+    <sheet name="PitchMaterials" sheetId="21" r:id="rId4"/>
     <sheet name="ICSE_Courses" sheetId="20" r:id="rId5"/>
     <sheet name="AI-NExP" sheetId="16" r:id="rId6"/>
     <sheet name="AI-Junior" sheetId="15" r:id="rId7"/>
@@ -26,7 +26,6 @@
     <sheet name="RoadShows" sheetId="23" r:id="rId11"/>
     <sheet name="Sheet2" sheetId="24" r:id="rId12"/>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">MarketingPlan!$N$1:$P$53</definedName>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="629">
   <si>
     <t>Medium</t>
   </si>
@@ -1120,30 +1119,15 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Talk to Pradipta</t>
-  </si>
-  <si>
     <t>B.D. Memorial School</t>
   </si>
   <si>
-    <t>Talk to Pradipta,Hema</t>
-  </si>
-  <si>
-    <t>Scouting for nursery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focus on student as guardians does not go </t>
-  </si>
-  <si>
     <t>Avidipta-1 &amp; 2</t>
   </si>
   <si>
     <t>Utkolika</t>
   </si>
   <si>
-    <t>Amrita stays</t>
-  </si>
-  <si>
     <t>Nayabad</t>
   </si>
   <si>
@@ -1169,12 +1153,6 @@
   </si>
   <si>
     <t>Wood Square Mall</t>
-  </si>
-  <si>
-    <t>Sophisticated Presentaion</t>
-  </si>
-  <si>
-    <t>Handout.</t>
   </si>
   <si>
     <t>Meghnad Shah Institute</t>
@@ -1494,14 +1472,6 @@
   </si>
   <si>
     <t>Seminar Invite Date</t>
-  </si>
-  <si>
-    <t>Seminar plan</t>
-  </si>
-  <si>
-    <t>This is your (child's) ticket to the dream career!
-Enroll within September OR Enroll in multiple subjects OR Bring a friend to get 50% off!
-Invite to Seminar on a Sunday!</t>
   </si>
   <si>
     <t>3 to 12</t>
@@ -1965,6 +1935,17 @@
   </si>
   <si>
     <t>Misc</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>This is your (child's) ticket to the dream career!
+Enroll within November OR Enroll in multiple subjects OR Bring a friend to get 50% off!
+Invite to Seminar on a Sunday!</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1955,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2080,6 +2061,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
     </font>
   </fonts>
   <fills count="25">
@@ -2983,7 +2970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3646,6 +3633,10 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3929,7 +3920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:F16"/>
     </sheetView>
   </sheetViews>
@@ -3942,7 +3933,7 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B1" s="156" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C1" s="156">
         <v>1</v>
@@ -4010,31 +4001,31 @@
     </row>
     <row r="2" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B2" s="156" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C2" s="156" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D2" s="156" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="E2" s="156" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F2" s="156" t="s">
         <v>331</v>
       </c>
       <c r="G2" s="156" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="H2" s="156" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="I2" s="156" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="J2" s="156" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="K2" s="156" t="s">
         <v>316</v>
@@ -4049,7 +4040,7 @@
         <v>340</v>
       </c>
       <c r="O2" s="156" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="P2" s="156" t="s">
         <v>349</v>
@@ -4058,65 +4049,65 @@
         <v>95</v>
       </c>
       <c r="R2" s="156" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="S2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="T2" s="156" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="U2" s="156" t="s">
+        <v>483</v>
+      </c>
+      <c r="V2" s="156" t="s">
+        <v>485</v>
+      </c>
+      <c r="W2" s="156" t="s">
+        <v>486</v>
+      </c>
+      <c r="X2" s="156" t="s">
         <v>492</v>
-      </c>
-      <c r="V2" s="156" t="s">
-        <v>494</v>
-      </c>
-      <c r="W2" s="156" t="s">
-        <v>495</v>
-      </c>
-      <c r="X2" s="156" t="s">
-        <v>501</v>
       </c>
       <c r="Y2" s="156"/>
       <c r="Z2" s="156" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA2" s="156" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB2" s="156" t="s">
+        <v>499</v>
+      </c>
+      <c r="AC2" s="156" t="s">
+        <v>500</v>
+      </c>
+      <c r="AD2" s="156" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE2" s="156" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF2" s="156" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG2" s="156" t="s">
+        <v>504</v>
+      </c>
+      <c r="AH2" s="156" t="s">
+        <v>505</v>
+      </c>
+      <c r="AI2" s="156" t="s">
+        <v>506</v>
+      </c>
+      <c r="AJ2" s="156" t="s">
         <v>507</v>
       </c>
-      <c r="AA2" s="156" t="s">
-        <v>518</v>
-      </c>
-      <c r="AB2" s="156" t="s">
+      <c r="AK2" s="156" t="s">
         <v>508</v>
       </c>
-      <c r="AC2" s="156" t="s">
-        <v>509</v>
-      </c>
-      <c r="AD2" s="156" t="s">
+      <c r="AL2" s="156" t="s">
         <v>510</v>
-      </c>
-      <c r="AE2" s="156" t="s">
-        <v>511</v>
-      </c>
-      <c r="AF2" s="156" t="s">
-        <v>512</v>
-      </c>
-      <c r="AG2" s="156" t="s">
-        <v>513</v>
-      </c>
-      <c r="AH2" s="156" t="s">
-        <v>514</v>
-      </c>
-      <c r="AI2" s="156" t="s">
-        <v>515</v>
-      </c>
-      <c r="AJ2" s="156" t="s">
-        <v>516</v>
-      </c>
-      <c r="AK2" s="156" t="s">
-        <v>517</v>
-      </c>
-      <c r="AL2" s="156" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -4195,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C4" s="137">
         <v>4.4000000000000004</v>
@@ -4266,7 +4257,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C5" s="137">
         <v>4</v>
@@ -4408,7 +4399,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C7" s="180">
         <v>5</v>
@@ -4477,7 +4468,7 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="137"/>
       <c r="B8" s="137" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C8" s="137">
         <v>96</v>
@@ -4532,7 +4523,7 @@
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="137"/>
       <c r="B9" s="137" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C9" s="180">
         <v>12</v>
@@ -4604,7 +4595,7 @@
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="137"/>
       <c r="B10" s="179" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C10" s="183">
         <f t="shared" ref="C10:I10" si="0">AVERAGE(C3:C7)</f>
@@ -4853,16 +4844,16 @@
       <c r="A16" s="137"/>
       <c r="B16" s="179"/>
       <c r="G16" s="181" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H16" s="181" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="I16" s="181" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="J16" s="181" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="T16" s="181"/>
       <c r="U16" s="181"/>
@@ -4873,19 +4864,19 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="K18" s="181" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="L18" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="M18" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="N18" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="O18" s="137" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -5305,7 +5296,7 @@
   <dimension ref="A1:QP33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
@@ -6921,10 +6912,10 @@
         <v>89</v>
       </c>
       <c r="B1" s="141" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C1" s="141" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D1" s="141" t="s">
         <v>171</v>
@@ -6938,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -6946,7 +6937,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -6954,7 +6945,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -6962,7 +6953,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -6970,7 +6961,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -6986,7 +6977,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6994,7 +6985,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -7002,7 +6993,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -7010,7 +7001,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -7018,7 +7009,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -7026,7 +7017,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7034,7 +7025,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7042,7 +7033,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -7050,7 +7041,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -7058,7 +7049,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -7066,7 +7057,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -7074,7 +7065,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -7082,7 +7073,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -7090,7 +7081,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -7098,7 +7089,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -7106,7 +7097,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -7114,7 +7105,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -7122,7 +7113,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -7130,7 +7121,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -7142,7 +7133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE84DDF1-DEE0-4E2B-8321-6AA75B5475A2}">
   <dimension ref="B2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -7153,42 +7144,42 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -8167,42 +8158,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C788D979-7CB4-4DA8-AE6B-ABB33AE1CBEA}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.77734375" style="152" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="153" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="230" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="231" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="231" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="154" t="s">
+      <c r="D1" s="231" t="s">
+        <v>626</v>
+      </c>
+      <c r="E1" s="231" t="s">
+        <v>627</v>
+      </c>
+      <c r="F1" s="231" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
       <c r="G1" s="154"/>
       <c r="H1" s="154"/>
       <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="153"/>
       <c r="B2" s="154"/>
       <c r="C2" s="154"/>
@@ -8212,9 +8208,8 @@
       <c r="G2" s="154"/>
       <c r="H2" s="154"/>
       <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="153">
         <v>1</v>
       </c>
@@ -8228,9 +8223,8 @@
       <c r="G3" s="154"/>
       <c r="H3" s="154"/>
       <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="153">
         <v>2</v>
       </c>
@@ -8244,9 +8238,8 @@
       <c r="G4" s="154"/>
       <c r="H4" s="154"/>
       <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="153">
         <v>3</v>
       </c>
@@ -8260,9 +8253,8 @@
       <c r="G5" s="154"/>
       <c r="H5" s="154"/>
       <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="153">
         <v>4</v>
       </c>
@@ -8272,19 +8264,14 @@
       <c r="C6" s="154">
         <v>5</v>
       </c>
-      <c r="D6" s="154" t="s">
-        <v>355</v>
-      </c>
-      <c r="E6" s="154" t="s">
-        <v>358</v>
-      </c>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
       <c r="F6" s="154"/>
       <c r="G6" s="154"/>
       <c r="H6" s="154"/>
       <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="153">
         <v>5</v>
       </c>
@@ -8300,9 +8287,8 @@
       <c r="G7" s="154"/>
       <c r="H7" s="154"/>
       <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="153">
         <v>6</v>
       </c>
@@ -8316,9 +8302,8 @@
       <c r="G8" s="154"/>
       <c r="H8" s="154"/>
       <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="153">
         <v>7</v>
       </c>
@@ -8327,13 +8312,12 @@
       </c>
       <c r="C9" s="154"/>
       <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
       <c r="G9" s="154"/>
       <c r="H9" s="154"/>
       <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="153">
         <v>8</v>
       </c>
@@ -8342,13 +8326,12 @@
       </c>
       <c r="C10" s="154"/>
       <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
       <c r="G10" s="154"/>
       <c r="H10" s="154"/>
       <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="153">
         <v>9</v>
       </c>
@@ -8362,9 +8345,8 @@
       <c r="G11" s="154"/>
       <c r="H11" s="154"/>
       <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="153">
         <v>10</v>
       </c>
@@ -8378,9 +8360,8 @@
       <c r="G12" s="154"/>
       <c r="H12" s="154"/>
       <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="153">
         <v>11</v>
       </c>
@@ -8394,9 +8375,8 @@
       <c r="G13" s="154"/>
       <c r="H13" s="154"/>
       <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="153">
         <v>12</v>
       </c>
@@ -8410,9 +8390,8 @@
       <c r="G14" s="154"/>
       <c r="H14" s="154"/>
       <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="153">
         <v>13</v>
       </c>
@@ -8421,13 +8400,12 @@
       </c>
       <c r="C15" s="154"/>
       <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
       <c r="G15" s="154"/>
       <c r="H15" s="154"/>
       <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="153">
         <v>14</v>
       </c>
@@ -8436,13 +8414,12 @@
       </c>
       <c r="C16" s="154"/>
       <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
       <c r="G16" s="154"/>
       <c r="H16" s="154"/>
       <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="153">
         <v>15</v>
       </c>
@@ -8456,9 +8433,8 @@
       <c r="G17" s="154"/>
       <c r="H17" s="154"/>
       <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="153">
         <v>16</v>
       </c>
@@ -8472,9 +8448,8 @@
       <c r="G18" s="154"/>
       <c r="H18" s="154"/>
       <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="153">
         <v>17</v>
       </c>
@@ -8488,12 +8463,11 @@
       <c r="G19" s="154"/>
       <c r="H19" s="154"/>
       <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="153"/>
       <c r="B20" s="154" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C20" s="154"/>
       <c r="D20" s="154"/>
@@ -8502,9 +8476,8 @@
       <c r="G20" s="154"/>
       <c r="H20" s="154"/>
       <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="153">
         <v>18</v>
       </c>
@@ -8518,9 +8491,8 @@
       <c r="G21" s="154"/>
       <c r="H21" s="154"/>
       <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="153">
         <v>19</v>
       </c>
@@ -8534,12 +8506,11 @@
       <c r="G22" s="154"/>
       <c r="H22" s="154"/>
       <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="153"/>
       <c r="B23" s="154" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C23" s="154"/>
       <c r="D23" s="154"/>
@@ -8548,12 +8519,11 @@
       <c r="G23" s="154"/>
       <c r="H23" s="154"/>
       <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="153"/>
       <c r="B24" s="154" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C24" s="154"/>
       <c r="D24" s="154"/>
@@ -8562,9 +8532,8 @@
       <c r="G24" s="154"/>
       <c r="H24" s="154"/>
       <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="153">
         <v>20</v>
       </c>
@@ -8578,9 +8547,8 @@
       <c r="G25" s="154"/>
       <c r="H25" s="154"/>
       <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="153">
         <v>21</v>
       </c>
@@ -8594,9 +8562,8 @@
       <c r="G26" s="154"/>
       <c r="H26" s="154"/>
       <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="153">
         <v>22</v>
       </c>
@@ -8610,9 +8577,8 @@
       <c r="G27" s="154"/>
       <c r="H27" s="154"/>
       <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="153">
         <v>23</v>
       </c>
@@ -8626,9 +8592,8 @@
       <c r="G28" s="154"/>
       <c r="H28" s="154"/>
       <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="153">
         <v>24</v>
       </c>
@@ -8642,9 +8607,8 @@
       <c r="G29" s="154"/>
       <c r="H29" s="154"/>
       <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="153">
         <v>25</v>
       </c>
@@ -8652,7 +8616,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="153">
         <v>26</v>
       </c>
@@ -8660,7 +8624,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="153">
         <v>27</v>
       </c>
@@ -8668,7 +8632,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="153">
         <v>28</v>
       </c>
@@ -8676,7 +8640,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="153">
         <v>29</v>
       </c>
@@ -8684,7 +8648,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="153">
         <v>30</v>
       </c>
@@ -8692,7 +8656,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="153">
         <v>31</v>
       </c>
@@ -8700,7 +8664,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="153">
         <v>32</v>
       </c>
@@ -8708,7 +8672,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="153">
         <v>33</v>
       </c>
@@ -8718,11 +8682,8 @@
       <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="153">
         <v>34</v>
       </c>
@@ -8730,7 +8691,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="153">
         <v>35</v>
       </c>
@@ -8738,7 +8699,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="153">
         <v>36</v>
       </c>
@@ -8746,7 +8707,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="153">
         <v>37</v>
       </c>
@@ -8754,7 +8715,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="153">
         <v>38</v>
       </c>
@@ -8762,7 +8723,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="153">
         <v>39</v>
       </c>
@@ -8770,7 +8731,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="153">
         <v>40</v>
       </c>
@@ -8778,7 +8739,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="153">
         <v>41</v>
       </c>
@@ -8786,7 +8747,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="152">
         <v>42</v>
       </c>
@@ -8797,161 +8758,149 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="152">
         <v>43</v>
       </c>
       <c r="B48" s="154" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="152">
         <v>44</v>
       </c>
       <c r="B49" s="154" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="152">
         <v>45</v>
       </c>
       <c r="B50" s="154" t="s">
-        <v>361</v>
-      </c>
-      <c r="D50" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="152">
         <v>46</v>
       </c>
       <c r="B51" s="154" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="152">
         <v>47</v>
       </c>
       <c r="B52" s="154" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C52">
         <v>5</v>
       </c>
-      <c r="D52" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="152">
         <v>48</v>
       </c>
       <c r="B53" s="154" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C53">
         <v>5</v>
       </c>
-      <c r="D53" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="152">
         <v>49</v>
       </c>
       <c r="B54" s="154" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="152">
         <v>50</v>
       </c>
       <c r="B55" s="154" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="152">
         <v>51</v>
       </c>
       <c r="B56" s="154" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="152">
         <v>52</v>
       </c>
       <c r="B57" s="154" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="152">
         <v>53</v>
       </c>
       <c r="B58" s="154" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="152">
         <v>54</v>
       </c>
       <c r="B59" s="154" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="152">
         <v>55</v>
       </c>
       <c r="B60" s="154" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="152">
         <v>56</v>
       </c>
       <c r="B61" s="154" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="152">
         <v>57</v>
       </c>
       <c r="B62" s="154" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="152">
         <v>58</v>
       </c>
       <c r="B63" s="154" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="152">
         <v>59</v>
       </c>
       <c r="B64" s="154" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -8959,7 +8908,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="154" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -8967,7 +8916,7 @@
         <v>61</v>
       </c>
       <c r="B66" s="154" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -8975,7 +8924,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="154" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -8983,7 +8932,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="154" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -8991,7 +8940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9956FF7E-BD44-4315-B1B9-AF37BE395C6A}">
   <dimension ref="A1:V68"/>
   <sheetViews>
@@ -9029,7 +8978,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="211" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B1" s="212"/>
       <c r="C1" s="212"/>
@@ -9037,7 +8986,7 @@
       <c r="E1" s="212"/>
       <c r="F1" s="213"/>
       <c r="G1" s="204" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H1" s="205"/>
       <c r="I1" s="205"/>
@@ -9047,77 +8996,77 @@
       <c r="M1" s="205"/>
       <c r="N1" s="206"/>
       <c r="O1" s="209" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P1" s="207" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q1" s="208"/>
       <c r="R1" s="165"/>
       <c r="S1" s="166"/>
       <c r="T1" s="165" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="U1" s="214" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="184" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B2" s="198"/>
       <c r="C2" s="185" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="185" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="185" t="s">
+        <v>543</v>
+      </c>
+      <c r="F2" s="186" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="187" t="s">
+        <v>395</v>
+      </c>
+      <c r="H2" s="188" t="s">
+        <v>385</v>
+      </c>
+      <c r="I2" s="188" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" s="188" t="s">
+        <v>528</v>
+      </c>
+      <c r="K2" s="188" t="s">
+        <v>383</v>
+      </c>
+      <c r="L2" s="188" t="s">
+        <v>384</v>
+      </c>
+      <c r="M2" s="188" t="s">
         <v>387</v>
       </c>
-      <c r="D2" s="185" t="s">
-        <v>388</v>
-      </c>
-      <c r="E2" s="185" t="s">
-        <v>552</v>
-      </c>
-      <c r="F2" s="186" t="s">
-        <v>389</v>
-      </c>
-      <c r="G2" s="187" t="s">
-        <v>402</v>
-      </c>
-      <c r="H2" s="188" t="s">
-        <v>392</v>
-      </c>
-      <c r="I2" s="188" t="s">
-        <v>403</v>
-      </c>
-      <c r="J2" s="188" t="s">
-        <v>537</v>
-      </c>
-      <c r="K2" s="188" t="s">
-        <v>390</v>
-      </c>
-      <c r="L2" s="188" t="s">
-        <v>391</v>
-      </c>
-      <c r="M2" s="188" t="s">
-        <v>394</v>
-      </c>
       <c r="N2" s="189" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="O2" s="210"/>
       <c r="P2" s="190" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q2" s="191" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="R2" s="192" t="s">
         <v>90</v>
       </c>
       <c r="S2" s="193" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="T2" s="192" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="U2" s="215"/>
     </row>
@@ -9126,61 +9075,61 @@
         <v>1</v>
       </c>
       <c r="B3" s="156" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C3" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D3" s="195" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="E3" s="195" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F3" s="195" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G3" s="195" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H3" s="195" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I3" s="195" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J3" s="195" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="K3" s="195" t="s">
+        <v>530</v>
+      </c>
+      <c r="L3" s="195" t="s">
         <v>539</v>
-      </c>
-      <c r="L3" s="195" t="s">
-        <v>548</v>
       </c>
       <c r="M3" s="195" t="s">
         <v>259</v>
       </c>
       <c r="N3" s="156" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="O3" s="194" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="P3" s="195"/>
       <c r="Q3" s="195"/>
       <c r="R3" s="194" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="S3" s="196" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="T3" s="194"/>
       <c r="U3" s="196">
         <v>45201</v>
       </c>
       <c r="V3" s="156" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
@@ -9188,51 +9137,51 @@
         <v>2</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D4" s="195" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="E4" s="195" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F4" s="199" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="G4" s="195" t="s">
+        <v>529</v>
+      </c>
+      <c r="H4" s="195" t="s">
+        <v>442</v>
+      </c>
+      <c r="I4" s="195" t="s">
+        <v>405</v>
+      </c>
+      <c r="J4" s="195" t="s">
+        <v>404</v>
+      </c>
+      <c r="K4" s="195" t="s">
+        <v>540</v>
+      </c>
+      <c r="L4" s="195" t="s">
         <v>538</v>
-      </c>
-      <c r="H4" s="195" t="s">
-        <v>449</v>
-      </c>
-      <c r="I4" s="195" t="s">
-        <v>412</v>
-      </c>
-      <c r="J4" s="195" t="s">
-        <v>411</v>
-      </c>
-      <c r="K4" s="195" t="s">
-        <v>549</v>
-      </c>
-      <c r="L4" s="195" t="s">
-        <v>547</v>
       </c>
       <c r="M4" s="195" t="s">
         <v>259</v>
       </c>
       <c r="N4" s="195" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="O4" s="194" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="P4" s="195"/>
       <c r="Q4" s="195"/>
       <c r="R4" s="194" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="S4" s="196" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="T4" s="194"/>
       <c r="U4" s="196">
@@ -9244,49 +9193,49 @@
         <v>6</v>
       </c>
       <c r="C5" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D5" s="195" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E5" s="195" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F5" s="195" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G5" s="195" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H5" s="195" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="I5" s="195" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J5" s="195"/>
       <c r="K5" s="195" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="L5" s="195" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="M5" s="195" t="s">
         <v>259</v>
       </c>
       <c r="N5" s="195" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="O5" s="194" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="P5" s="194"/>
       <c r="Q5" s="194"/>
       <c r="R5" s="194" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="S5" s="196" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="T5" s="194" t="s">
         <v>93</v>
@@ -9300,25 +9249,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D6" s="195" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="E6" s="200"/>
       <c r="F6" s="200"/>
       <c r="G6" s="195" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H6" s="195" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I6" s="195" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J6" s="195"/>
       <c r="K6" s="195" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="L6" s="200"/>
       <c r="M6" s="195" t="s">
@@ -9326,15 +9275,15 @@
       </c>
       <c r="N6" s="195"/>
       <c r="O6" s="194" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="P6" s="195"/>
       <c r="Q6" s="195"/>
       <c r="R6" s="194" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="S6" s="196" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="T6" s="194"/>
       <c r="U6" s="196">
@@ -9346,25 +9295,25 @@
         <v>7</v>
       </c>
       <c r="C7" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D7" s="195" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E7" s="200"/>
       <c r="F7" s="200"/>
       <c r="G7" s="195" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H7" s="195" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I7" s="195" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J7" s="194"/>
       <c r="K7" s="195" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="L7" s="200"/>
       <c r="M7" s="195" t="s">
@@ -9372,7 +9321,7 @@
       </c>
       <c r="N7" s="194"/>
       <c r="O7" s="194" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="P7" s="194"/>
       <c r="Q7" s="194"/>
@@ -9381,7 +9330,7 @@
       <c r="T7" s="194"/>
       <c r="U7" s="194"/>
       <c r="V7" s="156" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
@@ -9389,25 +9338,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D8" s="195" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E8" s="200"/>
       <c r="F8" s="200"/>
       <c r="G8" s="195" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H8" s="195" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I8" s="195" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J8" s="194"/>
       <c r="K8" s="195" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="L8" s="200"/>
       <c r="M8" s="195" t="s">
@@ -9415,7 +9364,7 @@
       </c>
       <c r="N8" s="194"/>
       <c r="O8" s="194" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="P8" s="194"/>
       <c r="Q8" s="194"/>
@@ -9429,27 +9378,27 @@
         <v>5</v>
       </c>
       <c r="C9" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D9" s="195" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="E9" s="200"/>
       <c r="F9" s="200"/>
       <c r="G9" s="195" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H9" s="195" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I9" s="195" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J9" s="195" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="K9" s="195" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="L9" s="200"/>
       <c r="M9" s="195" t="s">
@@ -9457,7 +9406,7 @@
       </c>
       <c r="N9" s="195"/>
       <c r="O9" s="194" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="P9" s="195"/>
       <c r="Q9" s="195"/>
@@ -9471,27 +9420,27 @@
         <v>10</v>
       </c>
       <c r="C10" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D10" s="195" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="E10" s="200"/>
       <c r="F10" s="200"/>
       <c r="G10" s="195" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H10" s="195" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="I10" s="195" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J10" s="195" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="K10" s="195" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="L10" s="200"/>
       <c r="M10" s="195" t="s">
@@ -9499,7 +9448,7 @@
       </c>
       <c r="N10" s="194"/>
       <c r="O10" s="194" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="P10" s="194"/>
       <c r="Q10" s="194"/>
@@ -9513,34 +9462,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D11" s="195" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="E11" s="200"/>
       <c r="F11" s="200"/>
       <c r="G11" s="195" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H11" s="195" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I11" s="195" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="K11" s="195" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="L11" s="200"/>
       <c r="M11" s="195" t="s">
         <v>259</v>
       </c>
       <c r="N11" s="195" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="O11" s="194" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="P11" s="195"/>
       <c r="Q11" s="195"/>
@@ -9554,34 +9503,34 @@
         <v>8</v>
       </c>
       <c r="C12" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D12" s="195" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E12" s="200"/>
       <c r="F12" s="200"/>
       <c r="G12" s="195" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H12" s="195" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="I12" s="195" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="K12" s="195" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="L12" s="200"/>
       <c r="M12" s="195" t="s">
         <v>259</v>
       </c>
       <c r="N12" s="194" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="O12" s="194" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="P12" s="194"/>
       <c r="Q12" s="194"/>
@@ -9595,10 +9544,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="156" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C13" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F13" s="194"/>
       <c r="G13" s="194"/>
@@ -9622,7 +9571,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D14" s="194"/>
       <c r="E14" s="194"/>
@@ -9648,7 +9597,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D15" s="194"/>
       <c r="E15" s="194"/>
@@ -9674,7 +9623,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D16" s="194"/>
       <c r="E16" s="194"/>
@@ -9700,7 +9649,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D17" s="194"/>
       <c r="E17" s="194"/>
@@ -9726,10 +9675,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="156" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C18" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D18" s="194"/>
       <c r="E18" s="194"/>
@@ -9755,7 +9704,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D19" s="194"/>
       <c r="E19" s="194"/>
@@ -9781,7 +9730,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D20" s="194"/>
       <c r="E20" s="194"/>
@@ -9807,7 +9756,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D21" s="194"/>
       <c r="E21" s="194"/>
@@ -9836,7 +9785,7 @@
         <v>99</v>
       </c>
       <c r="C22" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D22" s="194"/>
       <c r="E22" s="194"/>
@@ -9862,7 +9811,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -9870,7 +9819,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -9878,150 +9827,150 @@
         <v>23</v>
       </c>
       <c r="C25" s="185" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="156" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C33" s="178" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C34" s="178" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C35" s="178" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C36" s="202" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C37" s="202" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C38" s="202" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C39" s="202" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C40" s="202" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C41" s="202" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C42" s="202" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C43" s="202" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C44" s="202" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C45" s="202" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C46" s="202" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C47" s="202" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C48" s="202" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="202" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="202" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="202" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="202" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="202" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="54" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="202" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="55" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C55" s="202" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" s="202" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C57" s="202" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C58" s="202" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" s="202" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C60" s="202" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.3">
@@ -10061,12 +10010,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC73E8D-D204-4DD0-94CC-73EF61230586}">
   <dimension ref="B1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B5" activeCellId="2" sqref="B2 B4 B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10077,102 +10026,82 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="163" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D2" s="164" t="s">
-        <v>481</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="163" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="163" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="163" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="201" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D6" s="155" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="163" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="201" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D8" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="163" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="163" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="163" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="163" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="178" t="s">
-        <v>484</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE505DD-094B-4CF9-B8D3-BDF6E032643C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -10205,22 +10134,22 @@
         <v>90</v>
       </c>
       <c r="C1" s="161" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D1" s="160" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E1" s="161" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F1" s="161" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G1" s="161" t="s">
         <v>109</v>
       </c>
       <c r="H1" s="162" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10228,22 +10157,22 @@
         <v>93</v>
       </c>
       <c r="C2" s="168" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D2" s="176" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E2" s="168" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F2" s="168">
         <v>2000</v>
       </c>
       <c r="G2" s="156" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H2" s="157" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10251,22 +10180,22 @@
         <v>93</v>
       </c>
       <c r="C3" s="168" t="s">
+        <v>411</v>
+      </c>
+      <c r="D3" s="176" t="s">
+        <v>414</v>
+      </c>
+      <c r="E3" s="168" t="s">
         <v>418</v>
-      </c>
-      <c r="D3" s="176" t="s">
-        <v>421</v>
-      </c>
-      <c r="E3" s="168" t="s">
-        <v>425</v>
       </c>
       <c r="F3" s="168">
         <v>2000</v>
       </c>
       <c r="G3" s="156" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H3" s="157" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -10274,13 +10203,13 @@
         <v>93</v>
       </c>
       <c r="C4" s="168" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" s="176" t="s">
+        <v>415</v>
+      </c>
+      <c r="E4" s="168" t="s">
         <v>419</v>
-      </c>
-      <c r="D4" s="176" t="s">
-        <v>422</v>
-      </c>
-      <c r="E4" s="168" t="s">
-        <v>426</v>
       </c>
       <c r="F4" s="168">
         <v>2000</v>
@@ -10293,13 +10222,13 @@
         <v>93</v>
       </c>
       <c r="C5" s="168" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D5" s="176" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E5" s="168" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F5" s="168">
         <v>2000</v>
@@ -10309,16 +10238,16 @@
     </row>
     <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C6" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D6" s="173" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E6" s="168" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F6" s="175">
         <v>1500</v>
@@ -10328,16 +10257,16 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C7" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D7" s="173" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E7" s="168" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F7" s="175">
         <v>1500</v>
@@ -10347,16 +10276,16 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C8" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D8" s="173" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E8" s="168" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F8" s="175">
         <v>1500</v>
@@ -10366,16 +10295,16 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C9" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D9" s="173" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E9" s="168" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F9" s="175">
         <v>1500</v>
@@ -10385,16 +10314,16 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C10" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D10" s="172" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E10" s="167" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F10" s="175">
         <v>1500</v>
@@ -10404,16 +10333,16 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C11" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D11" s="172" t="s">
         <v>300</v>
       </c>
       <c r="E11" s="167" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F11" s="175">
         <v>3000</v>
@@ -10423,16 +10352,16 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C12" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D12" s="169" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="167" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F12" s="175">
         <v>1000</v>
@@ -10442,16 +10371,16 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C13" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D13" s="169" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F13" s="175">
         <v>1000</v>
@@ -10461,16 +10390,16 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C14" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D14" s="169" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E14" s="167" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F14" s="175">
         <v>1000</v>
@@ -10480,16 +10409,16 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D15" s="169" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E15" s="167" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F15" s="175">
         <v>1000</v>
@@ -10499,16 +10428,16 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C16" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D16" s="169" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E16" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F16" s="175">
         <v>1000</v>
@@ -10518,16 +10447,16 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C17" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D17" s="169" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E17" s="167" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F17" s="175">
         <v>1000</v>
@@ -10537,16 +10466,16 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C18" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D18" s="170" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E18" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F18" s="175">
         <v>1000</v>
@@ -10556,16 +10485,16 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C19" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D19" s="170" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E19" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F19" s="175">
         <v>1000</v>
@@ -10575,16 +10504,16 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C20" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D20" s="170" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E20" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F20" s="175">
         <v>1000</v>
@@ -10594,16 +10523,16 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C21" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D21" s="171" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E21" s="167" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F21" s="175">
         <v>1500</v>
@@ -10613,16 +10542,16 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C22" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D22" s="171" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E22" s="167" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F22" s="175">
         <v>1500</v>
@@ -10632,16 +10561,16 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C23" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D23" s="171" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E23" s="167" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F23" s="175">
         <v>1500</v>
@@ -10651,16 +10580,16 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C24" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D24" s="171" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E24" s="167" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F24" s="175">
         <v>1000</v>
@@ -10670,16 +10599,16 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="177" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C25" s="177" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D25" s="171" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E25" s="167" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F25" s="175">
         <v>1000</v>
@@ -10689,16 +10618,16 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C26" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D26" s="173" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E26" s="167" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F26" s="168">
         <v>1000</v>
@@ -10708,16 +10637,16 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C27" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D27" s="173" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E27" s="167" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F27" s="168">
         <v>1000</v>
@@ -10727,16 +10656,16 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C28" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D28" s="173" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E28" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F28" s="168">
         <v>1000</v>
@@ -10746,16 +10675,16 @@
     </row>
     <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C29" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D29" s="173" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E29" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F29" s="168">
         <v>1000</v>
@@ -10765,16 +10694,16 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C30" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D30" s="172" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E30" s="167" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F30" s="168">
         <v>1000</v>
@@ -10784,16 +10713,16 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C31" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D31" s="172" t="s">
         <v>300</v>
       </c>
       <c r="E31" s="167" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F31" s="168">
         <v>2000</v>
@@ -10803,16 +10732,16 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C32" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D32" s="169" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="167" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F32" s="168">
         <v>700</v>
@@ -10822,16 +10751,16 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C33" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D33" s="169" t="s">
         <v>94</v>
       </c>
       <c r="E33" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F33" s="168">
         <v>700</v>
@@ -10841,16 +10770,16 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C34" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D34" s="169" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E34" s="167" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F34" s="168">
         <v>700</v>
@@ -10860,16 +10789,16 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C35" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D35" s="169" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E35" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F35" s="168">
         <v>700</v>
@@ -10879,16 +10808,16 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C36" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D36" s="169" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E36" s="167" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F36" s="168">
         <v>700</v>
@@ -10898,16 +10827,16 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C37" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D37" s="169" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E37" s="167" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F37" s="168">
         <v>700</v>
@@ -10917,16 +10846,16 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C38" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D38" s="171" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E38" s="167" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F38" s="168">
         <v>700</v>
@@ -10936,16 +10865,16 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C39" s="168" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D39" s="171" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E39" s="167" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F39" s="168">
         <v>1000</v>
@@ -10955,16 +10884,16 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C40" s="168">
         <v>8</v>
       </c>
       <c r="D40" s="173" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E40" s="167" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F40" s="168">
         <v>750</v>
@@ -10974,16 +10903,16 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C41" s="168">
         <v>8</v>
       </c>
       <c r="D41" s="173" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E41" s="167" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F41" s="168">
         <v>750</v>
@@ -10993,16 +10922,16 @@
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C42" s="168">
         <v>8</v>
       </c>
       <c r="D42" s="173" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E42" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F42" s="168">
         <v>750</v>
@@ -11012,16 +10941,16 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C43" s="168">
         <v>8</v>
       </c>
       <c r="D43" s="173" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E43" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F43" s="168">
         <v>750</v>
@@ -11031,16 +10960,16 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C44" s="168">
         <v>8</v>
       </c>
       <c r="D44" s="172" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E44" s="167" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F44" s="168">
         <v>750</v>
@@ -11050,16 +10979,16 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C45" s="168">
         <v>8</v>
       </c>
       <c r="D45" s="172" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E45" s="167" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F45" s="168">
         <v>1500</v>
@@ -11069,7 +10998,7 @@
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C46" s="168">
         <v>8</v>
@@ -11078,7 +11007,7 @@
         <v>96</v>
       </c>
       <c r="E46" s="167" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F46" s="168">
         <v>600</v>
@@ -11088,7 +11017,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C47" s="168">
         <v>8</v>
@@ -11097,7 +11026,7 @@
         <v>94</v>
       </c>
       <c r="E47" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F47" s="168">
         <v>600</v>
@@ -11107,16 +11036,16 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C48" s="168">
         <v>8</v>
       </c>
       <c r="D48" s="169" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E48" s="167" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F48" s="168">
         <v>600</v>
@@ -11126,16 +11055,16 @@
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C49" s="168">
         <v>8</v>
       </c>
       <c r="D49" s="169" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E49" s="174" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F49" s="168">
         <v>600</v>
@@ -11145,16 +11074,16 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C50" s="168">
         <v>8</v>
       </c>
       <c r="D50" s="169" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E50" s="167" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F50" s="168">
         <v>600</v>
@@ -11164,16 +11093,16 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C51" s="168">
         <v>8</v>
       </c>
       <c r="D51" s="169" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E51" s="167" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F51" s="168">
         <v>600</v>
@@ -11183,16 +11112,16 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C52" s="168">
         <v>7</v>
       </c>
       <c r="D52" s="172" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E52" s="167" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F52" s="168">
         <v>1500</v>
@@ -11202,16 +11131,16 @@
     </row>
     <row r="53" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B53" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C53" s="168">
         <v>7</v>
       </c>
       <c r="D53" s="172" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E53" s="167" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F53" s="168">
         <v>600</v>
@@ -11221,16 +11150,16 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C54" s="168">
         <v>6</v>
       </c>
       <c r="D54" s="172" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E54" s="167" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F54" s="168">
         <v>1500</v>
@@ -11240,16 +11169,16 @@
     </row>
     <row r="55" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B55" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C55" s="168">
         <v>6</v>
       </c>
       <c r="D55" s="172" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E55" s="167" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F55" s="168">
         <v>600</v>
@@ -11259,16 +11188,16 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C56" s="168">
         <v>5</v>
       </c>
       <c r="D56" s="172" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E56" s="167" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F56" s="168">
         <v>1500</v>
@@ -11278,16 +11207,16 @@
     </row>
     <row r="57" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B57" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C57" s="168">
         <v>5</v>
       </c>
       <c r="D57" s="172" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E57" s="167" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F57" s="168">
         <v>600</v>
@@ -11297,16 +11226,16 @@
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C58" s="168">
         <v>4</v>
       </c>
       <c r="D58" s="172" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E58" s="167" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F58" s="168">
         <v>1500</v>
@@ -11316,16 +11245,16 @@
     </row>
     <row r="59" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B59" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C59" s="168">
         <v>4</v>
       </c>
       <c r="D59" s="172" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E59" s="167" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F59" s="168">
         <v>600</v>
@@ -11335,16 +11264,16 @@
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C60" s="168">
         <v>3</v>
       </c>
       <c r="D60" s="172" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E60" s="167" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F60" s="168">
         <v>1500</v>
@@ -11354,16 +11283,16 @@
     </row>
     <row r="61" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B61" s="168" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C61" s="168">
         <v>3</v>
       </c>
       <c r="D61" s="172" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E61" s="167" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F61" s="168">
         <v>600</v>

--- a/Offline/BusinessManagement/Marketing/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/BusinessManagement/Marketing/MarketingMasterPlan-May-2023.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Marketing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\docs\Offline\BusinessManagement\Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C735CD66-6B02-47B2-92EC-B1FC07C7720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="836" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="836" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingRatingSheet" sheetId="13" r:id="rId1"/>
@@ -30,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">MarketingPlan!$N$1:$P$53</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="637">
   <si>
     <t>Medium</t>
   </si>
@@ -1117,9 +1116,6 @@
   </si>
   <si>
     <t>Remarks</t>
-  </si>
-  <si>
-    <t>B.D. Memorial School</t>
   </si>
   <si>
     <t>Avidipta-1 &amp; 2</t>
@@ -1947,11 +1943,38 @@
 Enroll within November OR Enroll in multiple subjects OR Bring a friend to get 50% off!
 Invite to Seminar on a Sunday!</t>
   </si>
+  <si>
+    <t>Calcutta Boys Sonarpur</t>
+  </si>
+  <si>
+    <t>St John Bosco</t>
+  </si>
+  <si>
+    <t>St Stephens Nepalgunj</t>
+  </si>
+  <si>
+    <t>B.D Memorial School</t>
+  </si>
+  <si>
+    <t>NEET, JEE,IIT</t>
+  </si>
+  <si>
+    <t>NEET, JEE, IIT, CLAT, CUET, BOARDS(MOCK TESTS)</t>
+  </si>
+  <si>
+    <t>LEAFLET DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>NEET, JEE, IIT,CLAT,CUET, BOARDS(MOCK TESTS)</t>
+  </si>
+  <si>
+    <t>B.D MEMORIAL SCHOOL DAY SHIFT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -3555,6 +3578,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3633,10 +3660,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3917,23 +3940,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="23" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="23" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B1" s="156" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C1" s="156">
         <v>1</v>
@@ -3999,33 +4022,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="156" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C2" s="156" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D2" s="156" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E2" s="156" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F2" s="156" t="s">
         <v>331</v>
       </c>
       <c r="G2" s="156" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H2" s="156" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I2" s="156" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J2" s="156" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K2" s="156" t="s">
         <v>316</v>
@@ -4040,7 +4063,7 @@
         <v>340</v>
       </c>
       <c r="O2" s="156" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P2" s="156" t="s">
         <v>349</v>
@@ -4049,68 +4072,68 @@
         <v>95</v>
       </c>
       <c r="R2" s="156" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="S2" s="156" t="s">
         <v>97</v>
       </c>
       <c r="T2" s="156" t="s">
+        <v>481</v>
+      </c>
+      <c r="U2" s="156" t="s">
         <v>482</v>
       </c>
-      <c r="U2" s="156" t="s">
-        <v>483</v>
-      </c>
       <c r="V2" s="156" t="s">
+        <v>484</v>
+      </c>
+      <c r="W2" s="156" t="s">
         <v>485</v>
       </c>
-      <c r="W2" s="156" t="s">
-        <v>486</v>
-      </c>
       <c r="X2" s="156" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Y2" s="156"/>
       <c r="Z2" s="156" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA2" s="156" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB2" s="156" t="s">
         <v>498</v>
       </c>
-      <c r="AA2" s="156" t="s">
+      <c r="AC2" s="156" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD2" s="156" t="s">
+        <v>500</v>
+      </c>
+      <c r="AE2" s="156" t="s">
+        <v>501</v>
+      </c>
+      <c r="AF2" s="156" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG2" s="156" t="s">
+        <v>503</v>
+      </c>
+      <c r="AH2" s="156" t="s">
+        <v>504</v>
+      </c>
+      <c r="AI2" s="156" t="s">
+        <v>505</v>
+      </c>
+      <c r="AJ2" s="156" t="s">
+        <v>506</v>
+      </c>
+      <c r="AK2" s="156" t="s">
+        <v>507</v>
+      </c>
+      <c r="AL2" s="156" t="s">
         <v>509</v>
       </c>
-      <c r="AB2" s="156" t="s">
-        <v>499</v>
-      </c>
-      <c r="AC2" s="156" t="s">
-        <v>500</v>
-      </c>
-      <c r="AD2" s="156" t="s">
-        <v>501</v>
-      </c>
-      <c r="AE2" s="156" t="s">
-        <v>502</v>
-      </c>
-      <c r="AF2" s="156" t="s">
-        <v>503</v>
-      </c>
-      <c r="AG2" s="156" t="s">
-        <v>504</v>
-      </c>
-      <c r="AH2" s="156" t="s">
-        <v>505</v>
-      </c>
-      <c r="AI2" s="156" t="s">
-        <v>506</v>
-      </c>
-      <c r="AJ2" s="156" t="s">
-        <v>507</v>
-      </c>
-      <c r="AK2" s="156" t="s">
-        <v>508</v>
-      </c>
-      <c r="AL2" s="156" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="137">
         <v>1</v>
       </c>
@@ -4181,12 +4204,12 @@
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="137">
         <v>2</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C4" s="137">
         <v>4.4000000000000004</v>
@@ -4252,12 +4275,12 @@
       <c r="X4" s="137"/>
       <c r="Y4" s="137"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="137">
         <v>3</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C5" s="137">
         <v>4</v>
@@ -4323,7 +4346,7 @@
       <c r="X5" s="137"/>
       <c r="Y5" s="137"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="137">
         <v>4</v>
       </c>
@@ -4394,12 +4417,12 @@
       <c r="X6" s="137"/>
       <c r="Y6" s="137"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="137">
         <v>5</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C7" s="180">
         <v>5</v>
@@ -4465,10 +4488,10 @@
       <c r="X7" s="137"/>
       <c r="Y7" s="137"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="137"/>
       <c r="B8" s="137" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C8" s="137">
         <v>96</v>
@@ -4520,10 +4543,10 @@
       <c r="X8" s="137"/>
       <c r="Y8" s="137"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="137"/>
       <c r="B9" s="137" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C9" s="180">
         <v>12</v>
@@ -4592,10 +4615,10 @@
       </c>
       <c r="Y9" s="137"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="137"/>
       <c r="B10" s="179" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C10" s="183">
         <f t="shared" ref="C10:I10" si="0">AVERAGE(C3:C7)</f>
@@ -4681,7 +4704,7 @@
       <c r="X10" s="137"/>
       <c r="Y10" s="137"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="137"/>
       <c r="B11" s="137"/>
       <c r="C11" s="180"/>
@@ -4708,7 +4731,7 @@
       <c r="X11" s="137"/>
       <c r="Y11" s="137"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="137"/>
       <c r="B12" s="179"/>
       <c r="C12" s="181"/>
@@ -4735,7 +4758,7 @@
       <c r="X12" s="137"/>
       <c r="Y12" s="137"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="137"/>
       <c r="B13" s="179"/>
       <c r="C13" s="181"/>
@@ -4762,7 +4785,7 @@
       <c r="X13" s="137"/>
       <c r="Y13" s="137"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="137"/>
       <c r="B14" s="179"/>
       <c r="C14" s="181">
@@ -4815,7 +4838,7 @@
       <c r="X14" s="137"/>
       <c r="Y14" s="137"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="137"/>
       <c r="B15" s="179"/>
       <c r="C15" s="181" t="s">
@@ -4840,20 +4863,20 @@
       <c r="X15" s="137"/>
       <c r="Y15" s="137"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="137"/>
       <c r="B16" s="179"/>
       <c r="G16" s="181" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H16" s="181" t="s">
+        <v>513</v>
+      </c>
+      <c r="I16" s="181" t="s">
         <v>514</v>
       </c>
-      <c r="I16" s="181" t="s">
+      <c r="J16" s="181" t="s">
         <v>515</v>
-      </c>
-      <c r="J16" s="181" t="s">
-        <v>516</v>
       </c>
       <c r="T16" s="181"/>
       <c r="U16" s="181"/>
@@ -4862,24 +4885,24 @@
       <c r="X16" s="137"/>
       <c r="Y16" s="137"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K18" s="181" t="s">
+        <v>516</v>
+      </c>
+      <c r="L18" t="s">
         <v>517</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>518</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>519</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" s="137" t="s">
         <v>520</v>
       </c>
-      <c r="O18" s="137" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="137"/>
       <c r="B22" s="137"/>
       <c r="C22" s="137"/>
@@ -4905,7 +4928,7 @@
       <c r="X22" s="137"/>
       <c r="Y22" s="137"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="137"/>
       <c r="B23" s="137"/>
       <c r="C23" s="137"/>
@@ -4932,7 +4955,7 @@
       <c r="X23" s="137"/>
       <c r="Y23" s="137"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="137"/>
       <c r="B24" s="137"/>
       <c r="C24" s="137"/>
@@ -4959,7 +4982,7 @@
       <c r="X24" s="137"/>
       <c r="Y24" s="137"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="137"/>
       <c r="B25" s="137"/>
       <c r="C25" s="137"/>
@@ -4986,7 +5009,7 @@
       <c r="X25" s="137"/>
       <c r="Y25" s="137"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="137"/>
       <c r="B26" s="137"/>
       <c r="C26" s="137"/>
@@ -5013,7 +5036,7 @@
       <c r="X26" s="137"/>
       <c r="Y26" s="137"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="137"/>
       <c r="B27" s="137"/>
       <c r="C27" s="137"/>
@@ -5040,7 +5063,7 @@
       <c r="X27" s="137"/>
       <c r="Y27" s="137"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="137"/>
       <c r="B28" s="137"/>
       <c r="C28" s="137"/>
@@ -5067,7 +5090,7 @@
       <c r="X28" s="137"/>
       <c r="Y28" s="137"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="137"/>
       <c r="B29" s="137"/>
       <c r="C29" s="137"/>
@@ -5094,7 +5117,7 @@
       <c r="X29" s="137"/>
       <c r="Y29" s="137"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="137"/>
       <c r="B30" s="137"/>
       <c r="C30" s="137"/>
@@ -5111,7 +5134,7 @@
       <c r="V30" s="137"/>
       <c r="W30" s="137"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="137"/>
       <c r="B31" s="137"/>
       <c r="C31" s="137"/>
@@ -5128,7 +5151,7 @@
       <c r="V31" s="137"/>
       <c r="W31" s="137"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="137"/>
       <c r="B32" s="137"/>
       <c r="C32" s="137"/>
@@ -5145,7 +5168,7 @@
       <c r="V32" s="137"/>
       <c r="W32" s="137"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="137"/>
       <c r="B33" s="137"/>
       <c r="C33" s="137"/>
@@ -5162,7 +5185,7 @@
       <c r="V33" s="137"/>
       <c r="W33" s="137"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="137"/>
       <c r="B34" s="137"/>
       <c r="C34" s="137"/>
@@ -5179,7 +5202,7 @@
       <c r="V34" s="137"/>
       <c r="W34" s="137"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="137"/>
       <c r="B35" s="137"/>
       <c r="C35" s="137"/>
@@ -5196,7 +5219,7 @@
       <c r="V35" s="137"/>
       <c r="W35" s="137"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="137"/>
       <c r="B36" s="137"/>
       <c r="C36" s="137"/>
@@ -5213,7 +5236,7 @@
       <c r="V36" s="137"/>
       <c r="W36" s="137"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="137"/>
       <c r="B37" s="137"/>
       <c r="C37" s="137"/>
@@ -5230,7 +5253,7 @@
       <c r="V37" s="137"/>
       <c r="W37" s="137"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="137"/>
       <c r="B38" s="137"/>
       <c r="C38" s="137"/>
@@ -5247,7 +5270,7 @@
       <c r="V38" s="137"/>
       <c r="W38" s="137"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="137"/>
       <c r="B39" s="137"/>
       <c r="C39" s="137"/>
@@ -5264,7 +5287,7 @@
       <c r="V39" s="137"/>
       <c r="W39" s="137"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="137"/>
       <c r="B40" s="137"/>
       <c r="C40" s="137"/>
@@ -5283,7 +5306,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C30:G40 K30:L40 N30:V40" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C30:G40 K30:L40 N30:V40">
       <formula1>"1, 2, 3, 4, 5"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5292,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:QP33"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5302,14 +5325,14 @@
       <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="458" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="458" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:458" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:458" ht="51" x14ac:dyDescent="0.25">
       <c r="C1" s="133">
         <v>45052</v>
       </c>
@@ -5794,7 +5817,7 @@
       <c r="QO1" s="128"/>
       <c r="QP1" s="128"/>
     </row>
-    <row r="2" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:458" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -5830,7 +5853,7 @@
       <c r="AC2" s="132"/>
       <c r="AD2" s="132"/>
     </row>
-    <row r="3" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -5863,7 +5886,7 @@
       <c r="AC3" s="132"/>
       <c r="AD3" s="132"/>
     </row>
-    <row r="4" spans="1:458" ht="168" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:458" ht="168" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -5908,7 +5931,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:458" ht="96" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:458" ht="108" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -5947,7 +5970,7 @@
       <c r="AO5" s="140"/>
       <c r="AP5" s="140"/>
     </row>
-    <row r="6" spans="1:458" ht="108" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:458" ht="120" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -5986,7 +6009,7 @@
       <c r="AO6" s="140"/>
       <c r="AP6" s="140"/>
     </row>
-    <row r="7" spans="1:458" ht="144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:458" ht="144" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -6025,7 +6048,7 @@
       <c r="AO7" s="140"/>
       <c r="AP7" s="140"/>
     </row>
-    <row r="8" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -6058,7 +6081,7 @@
       <c r="AC8" s="132"/>
       <c r="AD8" s="132"/>
     </row>
-    <row r="9" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -6091,7 +6114,7 @@
       <c r="AC9" s="132"/>
       <c r="AD9" s="132"/>
     </row>
-    <row r="10" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -6124,7 +6147,7 @@
       <c r="AC10" s="132"/>
       <c r="AD10" s="132"/>
     </row>
-    <row r="11" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -6157,7 +6180,7 @@
       <c r="AC11" s="132"/>
       <c r="AD11" s="132"/>
     </row>
-    <row r="12" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>71</v>
       </c>
@@ -6190,7 +6213,7 @@
       <c r="AC12" s="132"/>
       <c r="AD12" s="132"/>
     </row>
-    <row r="13" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -6223,7 +6246,7 @@
       <c r="AC13" s="132"/>
       <c r="AD13" s="132"/>
     </row>
-    <row r="14" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -6256,7 +6279,7 @@
       <c r="AC14" s="132"/>
       <c r="AD14" s="132"/>
     </row>
-    <row r="15" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -6289,7 +6312,7 @@
       <c r="AC15" s="132"/>
       <c r="AD15" s="132"/>
     </row>
-    <row r="16" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:458" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -6322,7 +6345,7 @@
       <c r="AC16" s="132"/>
       <c r="AD16" s="132"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -6355,7 +6378,7 @@
       <c r="AC17" s="132"/>
       <c r="AD17" s="132"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -6391,7 +6414,7 @@
       <c r="AC18" s="132"/>
       <c r="AD18" s="132"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -6424,7 +6447,7 @@
       <c r="AC19" s="132"/>
       <c r="AD19" s="132"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>61</v>
       </c>
@@ -6457,7 +6480,7 @@
       <c r="AC20" s="132"/>
       <c r="AD20" s="132"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -6490,7 +6513,7 @@
       <c r="AC21" s="132"/>
       <c r="AD21" s="132"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -6523,7 +6546,7 @@
       <c r="AC22" s="132"/>
       <c r="AD22" s="132"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>63</v>
       </c>
@@ -6556,7 +6579,7 @@
       <c r="AC23" s="132"/>
       <c r="AD23" s="132"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>79</v>
       </c>
@@ -6589,7 +6612,7 @@
       <c r="AC24" s="132"/>
       <c r="AD24" s="132"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -6622,7 +6645,7 @@
       <c r="AC25" s="132"/>
       <c r="AD25" s="132"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>81</v>
       </c>
@@ -6655,7 +6678,7 @@
       <c r="AC26" s="132"/>
       <c r="AD26" s="132"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -6688,7 +6711,7 @@
       <c r="AC27" s="132"/>
       <c r="AD27" s="132"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -6721,7 +6744,7 @@
       <c r="AC28" s="132"/>
       <c r="AD28" s="132"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -6754,7 +6777,7 @@
       <c r="AC29" s="132"/>
       <c r="AD29" s="132"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>85</v>
       </c>
@@ -6787,7 +6810,7 @@
       <c r="AC30" s="132"/>
       <c r="AD30" s="132"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -6820,7 +6843,7 @@
       <c r="AC31" s="132"/>
       <c r="AD31" s="132"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -6853,7 +6876,7 @@
       <c r="AC32" s="132"/>
       <c r="AD32" s="132"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>88</v>
       </c>
@@ -6894,28 +6917,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915E635A-68CA-4147-811F-424EF28651FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="152" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="152" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="203" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="141" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C1" s="141" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D1" s="141" t="s">
         <v>171</v>
@@ -6924,47 +6947,47 @@
         <v>354</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="152">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="152">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="152">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="152">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="152">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="152">
         <v>6</v>
       </c>
@@ -6972,156 +6995,156 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="152">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="152">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="152">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="152">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="152">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="152">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="152">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="152">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="152">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="152">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="152">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="152">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="152">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="152">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="152">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="152">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="152">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="152">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="152">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -7130,56 +7153,56 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE84DDF1-DEE0-4E2B-8321-6AA75B5475A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>624</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -7188,7 +7211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7196,20 +7219,20 @@
       <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="139" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="139" customWidth="1"/>
-    <col min="3" max="12" width="11.44140625" style="139" customWidth="1"/>
-    <col min="13" max="13" width="1.44140625" style="139" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="139" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.109375" style="139" customWidth="1"/>
-    <col min="16" max="16" width="6.77734375" style="139" bestFit="1" customWidth="1"/>
-    <col min="17" max="47" width="13.6640625" style="139" customWidth="1"/>
-    <col min="48" max="16384" width="14.6640625" style="139"/>
+    <col min="1" max="1" width="9.28515625" style="139" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="139" customWidth="1"/>
+    <col min="3" max="12" width="11.42578125" style="139" customWidth="1"/>
+    <col min="13" max="13" width="1.42578125" style="139" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="139" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" style="139" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="139" bestFit="1" customWidth="1"/>
+    <col min="17" max="47" width="13.7109375" style="139" customWidth="1"/>
+    <col min="48" max="16384" width="14.7109375" style="139"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="142" t="s">
         <v>102</v>
       </c>
@@ -7257,8 +7280,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="227" t="s">
+    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="229" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="142" t="s">
@@ -7285,8 +7308,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="229"/>
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="231"/>
       <c r="B3" s="142" t="s">
         <v>302</v>
       </c>
@@ -7311,8 +7334,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="229"/>
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="231"/>
       <c r="B4" s="142" t="s">
         <v>261</v>
       </c>
@@ -7337,8 +7360,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="228"/>
+    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="230"/>
       <c r="B5" s="142" t="s">
         <v>301</v>
       </c>
@@ -7363,8 +7386,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="227" t="s">
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="229" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="142" t="s">
@@ -7391,8 +7414,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="229"/>
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="231"/>
       <c r="B7" s="142" t="s">
         <v>113</v>
       </c>
@@ -7417,8 +7440,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="229"/>
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="231"/>
       <c r="B8" s="142" t="s">
         <v>122</v>
       </c>
@@ -7443,8 +7466,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="228"/>
+    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="230"/>
       <c r="B9" s="142" t="s">
         <v>116</v>
       </c>
@@ -7469,8 +7492,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="227" t="s">
+    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="229" t="s">
         <v>300</v>
       </c>
       <c r="B10" s="142" t="s">
@@ -7497,8 +7520,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="229"/>
+    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="231"/>
       <c r="B11" s="142" t="s">
         <v>298</v>
       </c>
@@ -7523,8 +7546,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="228"/>
+    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="230"/>
       <c r="B12" s="142" t="s">
         <v>115</v>
       </c>
@@ -7549,8 +7572,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="227" t="s">
+    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="229" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="142" t="s">
@@ -7577,8 +7600,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="229"/>
+    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="231"/>
       <c r="B14" s="142" t="s">
         <v>123</v>
       </c>
@@ -7603,8 +7626,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="229"/>
+    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="231"/>
       <c r="B15" s="142" t="s">
         <v>120</v>
       </c>
@@ -7629,8 +7652,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="228"/>
+    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="230"/>
       <c r="B16" s="142" t="s">
         <v>117</v>
       </c>
@@ -7655,8 +7678,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="227" t="s">
+    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="229" t="s">
         <v>100</v>
       </c>
       <c r="B17" s="142" t="s">
@@ -7683,8 +7706,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="228"/>
+    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="230"/>
       <c r="B18" s="142" t="s">
         <v>119</v>
       </c>
@@ -7709,7 +7732,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="142" t="s">
         <v>101</v>
       </c>
@@ -7737,7 +7760,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N20" s="144" t="s">
         <v>227</v>
       </c>
@@ -7748,7 +7771,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N21" s="144" t="s">
         <v>228</v>
       </c>
@@ -7759,7 +7782,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N22" s="144" t="s">
         <v>229</v>
       </c>
@@ -7770,7 +7793,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N23" s="144" t="s">
         <v>244</v>
       </c>
@@ -7781,7 +7804,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N24" s="144" t="s">
         <v>230</v>
       </c>
@@ -7792,7 +7815,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N25" s="144" t="s">
         <v>231</v>
       </c>
@@ -7803,7 +7826,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N26" s="144" t="s">
         <v>232</v>
       </c>
@@ -7814,7 +7837,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N27" s="144" t="s">
         <v>233</v>
       </c>
@@ -7825,7 +7848,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N28" s="144" t="s">
         <v>234</v>
       </c>
@@ -7836,7 +7859,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N29" s="144" t="s">
         <v>235</v>
       </c>
@@ -7847,7 +7870,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N30" s="144" t="s">
         <v>245</v>
       </c>
@@ -7858,7 +7881,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N31" s="144" t="s">
         <v>236</v>
       </c>
@@ -7869,7 +7892,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N32" s="144" t="s">
         <v>237</v>
       </c>
@@ -7880,7 +7903,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N33" s="144" t="s">
         <v>238</v>
       </c>
@@ -7891,7 +7914,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N34" s="144" t="s">
         <v>239</v>
       </c>
@@ -7902,7 +7925,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N35" s="144" t="s">
         <v>240</v>
       </c>
@@ -7913,7 +7936,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N36" s="144" t="s">
         <v>241</v>
       </c>
@@ -7924,7 +7947,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N37" s="144" t="s">
         <v>248</v>
       </c>
@@ -7935,7 +7958,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N38" s="144" t="s">
         <v>249</v>
       </c>
@@ -7946,7 +7969,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N39" s="144" t="s">
         <v>251</v>
       </c>
@@ -7957,7 +7980,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N40" s="144" t="s">
         <v>252</v>
       </c>
@@ -7968,7 +7991,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N41" s="144" t="s">
         <v>253</v>
       </c>
@@ -7979,7 +8002,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N42" s="144" t="s">
         <v>254</v>
       </c>
@@ -7990,7 +8013,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N43" s="144" t="s">
         <v>263</v>
       </c>
@@ -8001,7 +8024,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N44" s="144" t="s">
         <v>264</v>
       </c>
@@ -8012,7 +8035,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N45" s="144" t="s">
         <v>265</v>
       </c>
@@ -8023,7 +8046,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N46" s="144" t="s">
         <v>266</v>
       </c>
@@ -8034,7 +8057,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N47" s="144" t="s">
         <v>267</v>
       </c>
@@ -8045,7 +8068,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N48" s="144" t="s">
         <v>268</v>
       </c>
@@ -8056,7 +8079,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N49" s="144" t="s">
         <v>269</v>
       </c>
@@ -8067,7 +8090,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N50" s="144" t="s">
         <v>270</v>
       </c>
@@ -8078,7 +8101,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="144" t="s">
         <v>271</v>
       </c>
@@ -8089,7 +8112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N52" s="144" t="s">
         <v>272</v>
       </c>
@@ -8100,7 +8123,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N53" s="144" t="s">
         <v>273</v>
       </c>
@@ -8111,38 +8134,38 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="N1:P53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="N1:P53"/>
   <mergeCells count="5">
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A2:A5"/>
@@ -8151,7 +8174,7 @@
     <mergeCell ref="A10:A12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O2" location="Generic!A1" display="Generic-Flyer" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O2" location="Generic!A1" display="Generic-Flyer"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8159,46 +8182,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C788D979-7CB4-4DA8-AE6B-ABB33AE1CBEA}">
-  <dimension ref="A1:I68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="152" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="152" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="230" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="205" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="231" t="s">
+      <c r="C1" s="205" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="231" t="s">
+      <c r="D1" s="205" t="s">
+        <v>625</v>
+      </c>
+      <c r="E1" s="205" t="s">
         <v>626</v>
       </c>
-      <c r="E1" s="231" t="s">
-        <v>627</v>
-      </c>
-      <c r="F1" s="231" t="s">
+      <c r="G1" s="205" t="s">
         <v>354</v>
       </c>
-      <c r="G1" s="154"/>
       <c r="H1" s="154"/>
       <c r="I1" s="154"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="153"/>
       <c r="B2" s="154"/>
       <c r="C2" s="154"/>
@@ -8209,7 +8231,7 @@
       <c r="H2" s="154"/>
       <c r="I2" s="154"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="153">
         <v>1</v>
       </c>
@@ -8224,7 +8246,7 @@
       <c r="H3" s="154"/>
       <c r="I3" s="154"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="153">
         <v>2</v>
       </c>
@@ -8239,7 +8261,7 @@
       <c r="H4" s="154"/>
       <c r="I4" s="154"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="153">
         <v>3</v>
       </c>
@@ -8254,7 +8276,7 @@
       <c r="H5" s="154"/>
       <c r="I5" s="154"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="153">
         <v>4</v>
       </c>
@@ -8271,7 +8293,7 @@
       <c r="H6" s="154"/>
       <c r="I6" s="154"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="153">
         <v>5</v>
       </c>
@@ -8288,7 +8310,7 @@
       <c r="H7" s="154"/>
       <c r="I7" s="154"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="153">
         <v>6</v>
       </c>
@@ -8303,7 +8325,7 @@
       <c r="H8" s="154"/>
       <c r="I8" s="154"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="153">
         <v>7</v>
       </c>
@@ -8317,7 +8339,7 @@
       <c r="H9" s="154"/>
       <c r="I9" s="154"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="153">
         <v>8</v>
       </c>
@@ -8326,12 +8348,14 @@
       </c>
       <c r="C10" s="154"/>
       <c r="D10" s="154"/>
-      <c r="F10" s="154"/>
+      <c r="F10" s="154" t="s">
+        <v>634</v>
+      </c>
       <c r="G10" s="154"/>
       <c r="H10" s="154"/>
       <c r="I10" s="154"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="153">
         <v>9</v>
       </c>
@@ -8346,7 +8370,7 @@
       <c r="H11" s="154"/>
       <c r="I11" s="154"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="153">
         <v>10</v>
       </c>
@@ -8361,7 +8385,7 @@
       <c r="H12" s="154"/>
       <c r="I12" s="154"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="153">
         <v>11</v>
       </c>
@@ -8376,7 +8400,7 @@
       <c r="H13" s="154"/>
       <c r="I13" s="154"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="153">
         <v>12</v>
       </c>
@@ -8391,7 +8415,7 @@
       <c r="H14" s="154"/>
       <c r="I14" s="154"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="153">
         <v>13</v>
       </c>
@@ -8405,7 +8429,7 @@
       <c r="H15" s="154"/>
       <c r="I15" s="154"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="153">
         <v>14</v>
       </c>
@@ -8419,7 +8443,7 @@
       <c r="H16" s="154"/>
       <c r="I16" s="154"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="153">
         <v>15</v>
       </c>
@@ -8434,7 +8458,7 @@
       <c r="H17" s="154"/>
       <c r="I17" s="154"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="153">
         <v>16</v>
       </c>
@@ -8449,7 +8473,7 @@
       <c r="H18" s="154"/>
       <c r="I18" s="154"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="153">
         <v>17</v>
       </c>
@@ -8464,10 +8488,10 @@
       <c r="H19" s="154"/>
       <c r="I19" s="154"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="153"/>
       <c r="B20" s="154" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C20" s="154"/>
       <c r="D20" s="154"/>
@@ -8477,7 +8501,7 @@
       <c r="H20" s="154"/>
       <c r="I20" s="154"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="153">
         <v>18</v>
       </c>
@@ -8492,7 +8516,7 @@
       <c r="H21" s="154"/>
       <c r="I21" s="154"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="153">
         <v>19</v>
       </c>
@@ -8507,10 +8531,10 @@
       <c r="H22" s="154"/>
       <c r="I22" s="154"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="153"/>
       <c r="B23" s="154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C23" s="154"/>
       <c r="D23" s="154"/>
@@ -8520,10 +8544,10 @@
       <c r="H23" s="154"/>
       <c r="I23" s="154"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="153"/>
       <c r="B24" s="154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C24" s="154"/>
       <c r="D24" s="154"/>
@@ -8533,7 +8557,7 @@
       <c r="H24" s="154"/>
       <c r="I24" s="154"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="153">
         <v>20</v>
       </c>
@@ -8548,7 +8572,7 @@
       <c r="H25" s="154"/>
       <c r="I25" s="154"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="153">
         <v>21</v>
       </c>
@@ -8563,7 +8587,7 @@
       <c r="H26" s="154"/>
       <c r="I26" s="154"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="153">
         <v>22</v>
       </c>
@@ -8578,14 +8602,16 @@
       <c r="H27" s="154"/>
       <c r="I27" s="154"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="153">
         <v>23</v>
       </c>
       <c r="B28" s="154" t="s">
         <v>334</v>
       </c>
-      <c r="C28" s="154"/>
+      <c r="C28" s="154">
+        <v>5</v>
+      </c>
       <c r="D28" s="154"/>
       <c r="E28" s="154"/>
       <c r="F28" s="154"/>
@@ -8593,14 +8619,16 @@
       <c r="H28" s="154"/>
       <c r="I28" s="154"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="153">
         <v>24</v>
       </c>
       <c r="B29" s="154" t="s">
         <v>335</v>
       </c>
-      <c r="C29" s="154"/>
+      <c r="C29" s="154">
+        <v>5</v>
+      </c>
       <c r="D29" s="154"/>
       <c r="E29" s="154"/>
       <c r="F29" s="154"/>
@@ -8608,7 +8636,7 @@
       <c r="H29" s="154"/>
       <c r="I29" s="154"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="153">
         <v>25</v>
       </c>
@@ -8616,39 +8644,51 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="153">
         <v>26</v>
       </c>
       <c r="B31" s="154" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="153">
         <v>27</v>
       </c>
       <c r="B32" s="154" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="153">
         <v>28</v>
       </c>
       <c r="B33" s="154" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="153">
         <v>29</v>
       </c>
       <c r="B34" s="154" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="153">
         <v>30</v>
       </c>
@@ -8656,7 +8696,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="153">
         <v>31</v>
       </c>
@@ -8664,15 +8704,21 @@
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="153">
         <v>32</v>
       </c>
       <c r="B37" s="154" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="153">
         <v>33</v>
       </c>
@@ -8683,7 +8729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="153">
         <v>34</v>
       </c>
@@ -8691,7 +8737,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="153">
         <v>35</v>
       </c>
@@ -8699,7 +8745,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="153">
         <v>36</v>
       </c>
@@ -8707,7 +8753,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="153">
         <v>37</v>
       </c>
@@ -8715,7 +8761,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="153">
         <v>38</v>
       </c>
@@ -8723,7 +8769,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="153">
         <v>39</v>
       </c>
@@ -8731,7 +8777,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="153">
         <v>40</v>
       </c>
@@ -8739,7 +8785,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="153">
         <v>41</v>
       </c>
@@ -8747,7 +8793,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="152">
         <v>42</v>
       </c>
@@ -8758,190 +8804,244 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="152">
         <v>43</v>
       </c>
       <c r="B48" s="154" t="s">
-        <v>355</v>
+        <v>631</v>
       </c>
       <c r="C48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="152">
         <v>44</v>
       </c>
       <c r="B49" s="154" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="152">
         <v>45</v>
       </c>
       <c r="B50" s="154" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="152">
         <v>46</v>
       </c>
       <c r="B51" s="154" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="152">
         <v>47</v>
       </c>
       <c r="B52" s="154" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="152">
         <v>48</v>
       </c>
       <c r="B53" s="154" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C53">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="152">
         <v>49</v>
       </c>
       <c r="B54" s="154" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="152">
         <v>50</v>
       </c>
       <c r="B55" s="154" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="152">
         <v>51</v>
       </c>
       <c r="B56" s="154" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="152">
         <v>52</v>
       </c>
       <c r="B57" s="154" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="152">
         <v>53</v>
       </c>
       <c r="B58" s="154" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="152">
         <v>54</v>
       </c>
       <c r="B59" s="154" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="152">
         <v>55</v>
       </c>
       <c r="B60" s="154" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="152">
         <v>56</v>
       </c>
       <c r="B61" s="154" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="152">
         <v>57</v>
       </c>
       <c r="B62" s="154" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="152">
         <v>58</v>
       </c>
       <c r="B63" s="154" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="152">
         <v>59</v>
       </c>
       <c r="B64" s="154" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="152">
         <v>60</v>
       </c>
       <c r="B65" s="154" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="152">
         <v>61</v>
       </c>
       <c r="B66" s="154" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="152">
         <v>62</v>
       </c>
       <c r="B67" s="154" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="152">
         <v>63</v>
       </c>
       <c r="B68" s="154" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="152">
+        <v>64</v>
+      </c>
+      <c r="B69" s="154" t="s">
+        <v>628</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="152">
+        <v>65</v>
+      </c>
+      <c r="B70" s="154" t="s">
+        <v>629</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="152">
+        <v>66</v>
+      </c>
+      <c r="B71" s="154" t="s">
+        <v>630</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="152">
+        <v>67</v>
+      </c>
+      <c r="B72" s="154" t="s">
+        <v>636</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9956FF7E-BD44-4315-B1B9-AF37BE395C6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -8951,291 +9051,291 @@
       <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="156" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="156" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="156" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="156" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.33203125" style="156" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="156" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="156" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="156" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="156" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" style="156" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" style="156" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="156" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.44140625" style="156" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.109375" style="156" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.88671875" style="156" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" style="156" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" style="156" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="156" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" style="156" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="156" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="156" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="156" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="156" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.28515625" style="156" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="156" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="156" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="156" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="156" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="156" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="156" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="156" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" style="156" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" style="156" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="156" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="156" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" style="156" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" style="156" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="156" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" style="156" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="34.109375" style="156"/>
+    <col min="22" max="16384" width="34.140625" style="156"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="211" t="s">
-        <v>399</v>
-      </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="204" t="s">
-        <v>386</v>
-      </c>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="209" t="s">
+    <row r="1" spans="1:22" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="213" t="s">
         <v>398</v>
       </c>
-      <c r="P1" s="207" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q1" s="208"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="206" t="s">
+        <v>385</v>
+      </c>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="211" t="s">
+        <v>397</v>
+      </c>
+      <c r="P1" s="209" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q1" s="210"/>
       <c r="R1" s="165"/>
       <c r="S1" s="166"/>
       <c r="T1" s="165" t="s">
-        <v>391</v>
-      </c>
-      <c r="U1" s="214" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="24" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+      <c r="U1" s="216" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="184" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B2" s="198"/>
       <c r="C2" s="185" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="185" t="s">
         <v>380</v>
       </c>
-      <c r="D2" s="185" t="s">
+      <c r="E2" s="185" t="s">
+        <v>542</v>
+      </c>
+      <c r="F2" s="186" t="s">
         <v>381</v>
       </c>
-      <c r="E2" s="185" t="s">
-        <v>543</v>
-      </c>
-      <c r="F2" s="186" t="s">
+      <c r="G2" s="187" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="188" t="s">
+        <v>384</v>
+      </c>
+      <c r="I2" s="188" t="s">
+        <v>395</v>
+      </c>
+      <c r="J2" s="188" t="s">
+        <v>527</v>
+      </c>
+      <c r="K2" s="188" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="187" t="s">
-        <v>395</v>
-      </c>
-      <c r="H2" s="188" t="s">
-        <v>385</v>
-      </c>
-      <c r="I2" s="188" t="s">
+      <c r="L2" s="188" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2" s="188" t="s">
+        <v>386</v>
+      </c>
+      <c r="N2" s="189" t="s">
         <v>396</v>
       </c>
-      <c r="J2" s="188" t="s">
-        <v>528</v>
-      </c>
-      <c r="K2" s="188" t="s">
-        <v>383</v>
-      </c>
-      <c r="L2" s="188" t="s">
-        <v>384</v>
-      </c>
-      <c r="M2" s="188" t="s">
-        <v>387</v>
-      </c>
-      <c r="N2" s="189" t="s">
-        <v>397</v>
-      </c>
-      <c r="O2" s="210"/>
+      <c r="O2" s="212"/>
       <c r="P2" s="190" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q2" s="191" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R2" s="192" t="s">
         <v>90</v>
       </c>
       <c r="S2" s="193" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="T2" s="192" t="s">
-        <v>408</v>
-      </c>
-      <c r="U2" s="215"/>
-    </row>
-    <row r="3" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+      <c r="U2" s="217"/>
+    </row>
+    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="194">
         <v>1</v>
       </c>
       <c r="B3" s="156" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C3" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D3" s="195" t="s">
+        <v>523</v>
+      </c>
+      <c r="E3" s="195" t="s">
         <v>524</v>
       </c>
-      <c r="E3" s="195" t="s">
+      <c r="F3" s="195" t="s">
         <v>525</v>
       </c>
-      <c r="F3" s="195" t="s">
-        <v>526</v>
-      </c>
       <c r="G3" s="195" t="s">
+        <v>528</v>
+      </c>
+      <c r="H3" s="195" t="s">
+        <v>441</v>
+      </c>
+      <c r="I3" s="195" t="s">
+        <v>404</v>
+      </c>
+      <c r="J3" s="195" t="s">
+        <v>403</v>
+      </c>
+      <c r="K3" s="195" t="s">
         <v>529</v>
       </c>
-      <c r="H3" s="195" t="s">
-        <v>442</v>
-      </c>
-      <c r="I3" s="195" t="s">
-        <v>405</v>
-      </c>
-      <c r="J3" s="195" t="s">
-        <v>404</v>
-      </c>
-      <c r="K3" s="195" t="s">
-        <v>530</v>
-      </c>
       <c r="L3" s="195" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M3" s="195" t="s">
         <v>259</v>
       </c>
       <c r="N3" s="156" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="O3" s="194" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P3" s="195"/>
       <c r="Q3" s="195"/>
       <c r="R3" s="194" t="s">
+        <v>532</v>
+      </c>
+      <c r="S3" s="196" t="s">
         <v>533</v>
-      </c>
-      <c r="S3" s="196" t="s">
-        <v>534</v>
       </c>
       <c r="T3" s="194"/>
       <c r="U3" s="196">
         <v>45201</v>
       </c>
       <c r="V3" s="156" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="194">
         <v>2</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" s="195" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E4" s="195" t="s">
+        <v>540</v>
+      </c>
+      <c r="F4" s="199" t="s">
         <v>541</v>
       </c>
-      <c r="F4" s="199" t="s">
-        <v>542</v>
-      </c>
       <c r="G4" s="195" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H4" s="195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I4" s="195" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J4" s="195" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K4" s="195" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L4" s="195" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M4" s="195" t="s">
         <v>259</v>
       </c>
       <c r="N4" s="195" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O4" s="194" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P4" s="195"/>
       <c r="Q4" s="195"/>
       <c r="R4" s="194" t="s">
+        <v>532</v>
+      </c>
+      <c r="S4" s="196" t="s">
         <v>533</v>
-      </c>
-      <c r="S4" s="196" t="s">
-        <v>534</v>
       </c>
       <c r="T4" s="194"/>
       <c r="U4" s="196">
         <v>45201</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="194">
         <v>6</v>
       </c>
       <c r="C5" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D5" s="195" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" s="195" t="s">
         <v>401</v>
       </c>
-      <c r="E5" s="195" t="s">
+      <c r="F5" s="195" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" s="195" t="s">
         <v>402</v>
       </c>
-      <c r="F5" s="195" t="s">
-        <v>402</v>
-      </c>
-      <c r="G5" s="195" t="s">
-        <v>403</v>
-      </c>
       <c r="H5" s="195" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I5" s="195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J5" s="195"/>
       <c r="K5" s="195" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L5" s="195" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M5" s="195" t="s">
         <v>259</v>
       </c>
       <c r="N5" s="195" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O5" s="194" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P5" s="194"/>
       <c r="Q5" s="194"/>
       <c r="R5" s="194" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S5" s="196" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="T5" s="194" t="s">
         <v>93</v>
@@ -9244,30 +9344,30 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="194">
         <v>4</v>
       </c>
       <c r="C6" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D6" s="195" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E6" s="200"/>
       <c r="F6" s="200"/>
       <c r="G6" s="195" t="s">
+        <v>402</v>
+      </c>
+      <c r="H6" s="195" t="s">
         <v>403</v>
       </c>
-      <c r="H6" s="195" t="s">
-        <v>404</v>
-      </c>
       <c r="I6" s="195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J6" s="195"/>
       <c r="K6" s="195" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L6" s="200"/>
       <c r="M6" s="195" t="s">
@@ -9275,45 +9375,45 @@
       </c>
       <c r="N6" s="195"/>
       <c r="O6" s="194" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P6" s="195"/>
       <c r="Q6" s="195"/>
       <c r="R6" s="194" t="s">
+        <v>532</v>
+      </c>
+      <c r="S6" s="196" t="s">
         <v>533</v>
-      </c>
-      <c r="S6" s="196" t="s">
-        <v>534</v>
       </c>
       <c r="T6" s="194"/>
       <c r="U6" s="196">
         <v>45201</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="194">
         <v>7</v>
       </c>
       <c r="C7" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D7" s="195" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E7" s="200"/>
       <c r="F7" s="200"/>
       <c r="G7" s="195" t="s">
+        <v>402</v>
+      </c>
+      <c r="H7" s="195" t="s">
         <v>403</v>
       </c>
-      <c r="H7" s="195" t="s">
-        <v>404</v>
-      </c>
       <c r="I7" s="195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J7" s="194"/>
       <c r="K7" s="195" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L7" s="200"/>
       <c r="M7" s="195" t="s">
@@ -9321,7 +9421,7 @@
       </c>
       <c r="N7" s="194"/>
       <c r="O7" s="194" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P7" s="194"/>
       <c r="Q7" s="194"/>
@@ -9330,33 +9430,33 @@
       <c r="T7" s="194"/>
       <c r="U7" s="194"/>
       <c r="V7" s="156" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="194">
         <v>9</v>
       </c>
       <c r="C8" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D8" s="195" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E8" s="200"/>
       <c r="F8" s="200"/>
       <c r="G8" s="195" t="s">
+        <v>402</v>
+      </c>
+      <c r="H8" s="195" t="s">
         <v>403</v>
       </c>
-      <c r="H8" s="195" t="s">
-        <v>404</v>
-      </c>
       <c r="I8" s="195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J8" s="194"/>
       <c r="K8" s="195" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L8" s="200"/>
       <c r="M8" s="195" t="s">
@@ -9364,7 +9464,7 @@
       </c>
       <c r="N8" s="194"/>
       <c r="O8" s="194" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P8" s="194"/>
       <c r="Q8" s="194"/>
@@ -9373,32 +9473,32 @@
       <c r="T8" s="194"/>
       <c r="U8" s="194"/>
     </row>
-    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="194">
         <v>5</v>
       </c>
       <c r="C9" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D9" s="195" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E9" s="200"/>
       <c r="F9" s="200"/>
       <c r="G9" s="195" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H9" s="195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I9" s="195" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J9" s="195" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K9" s="195" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L9" s="200"/>
       <c r="M9" s="195" t="s">
@@ -9406,7 +9506,7 @@
       </c>
       <c r="N9" s="195"/>
       <c r="O9" s="194" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P9" s="195"/>
       <c r="Q9" s="195"/>
@@ -9415,32 +9515,32 @@
       <c r="T9" s="194"/>
       <c r="U9" s="194"/>
     </row>
-    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="194">
         <v>10</v>
       </c>
       <c r="C10" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D10" s="195" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E10" s="200"/>
       <c r="F10" s="200"/>
       <c r="G10" s="195" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H10" s="195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I10" s="195" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J10" s="195" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K10" s="195" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L10" s="200"/>
       <c r="M10" s="195" t="s">
@@ -9448,7 +9548,7 @@
       </c>
       <c r="N10" s="194"/>
       <c r="O10" s="194" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P10" s="194"/>
       <c r="Q10" s="194"/>
@@ -9457,39 +9557,39 @@
       <c r="T10" s="194"/>
       <c r="U10" s="194"/>
     </row>
-    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="194">
         <v>3</v>
       </c>
       <c r="C11" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D11" s="195" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E11" s="200"/>
       <c r="F11" s="200"/>
       <c r="G11" s="195" t="s">
+        <v>402</v>
+      </c>
+      <c r="H11" s="195" t="s">
         <v>403</v>
       </c>
-      <c r="H11" s="195" t="s">
-        <v>404</v>
-      </c>
       <c r="I11" s="195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K11" s="195" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L11" s="200"/>
       <c r="M11" s="195" t="s">
         <v>259</v>
       </c>
       <c r="N11" s="195" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O11" s="194" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P11" s="195"/>
       <c r="Q11" s="195"/>
@@ -9498,39 +9598,39 @@
       <c r="T11" s="194"/>
       <c r="U11" s="194"/>
     </row>
-    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="194">
         <v>8</v>
       </c>
       <c r="C12" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D12" s="195" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E12" s="200"/>
       <c r="F12" s="200"/>
       <c r="G12" s="195" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" s="195" t="s">
         <v>403</v>
       </c>
-      <c r="H12" s="195" t="s">
-        <v>404</v>
-      </c>
       <c r="I12" s="195" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K12" s="195" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L12" s="200"/>
       <c r="M12" s="195" t="s">
         <v>259</v>
       </c>
       <c r="N12" s="194" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O12" s="194" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P12" s="194"/>
       <c r="Q12" s="194"/>
@@ -9539,15 +9639,15 @@
       <c r="T12" s="194"/>
       <c r="U12" s="194"/>
     </row>
-    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="194">
         <v>11</v>
       </c>
       <c r="B13" s="156" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C13" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F13" s="194"/>
       <c r="G13" s="194"/>
@@ -9566,12 +9666,12 @@
       <c r="T13" s="194"/>
       <c r="U13" s="194"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="194">
         <v>12</v>
       </c>
       <c r="C14" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D14" s="194"/>
       <c r="E14" s="194"/>
@@ -9592,12 +9692,12 @@
       <c r="T14" s="194"/>
       <c r="U14" s="194"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="194">
         <v>13</v>
       </c>
       <c r="C15" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D15" s="194"/>
       <c r="E15" s="194"/>
@@ -9618,12 +9718,12 @@
       <c r="T15" s="194"/>
       <c r="U15" s="194"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="194">
         <v>14</v>
       </c>
       <c r="C16" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D16" s="194"/>
       <c r="E16" s="194"/>
@@ -9644,12 +9744,12 @@
       <c r="T16" s="194"/>
       <c r="U16" s="194"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="194">
         <v>15</v>
       </c>
       <c r="C17" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D17" s="194"/>
       <c r="E17" s="194"/>
@@ -9670,15 +9770,15 @@
       <c r="T17" s="194"/>
       <c r="U17" s="194"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="194">
         <v>16</v>
       </c>
       <c r="B18" s="156" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C18" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D18" s="194"/>
       <c r="E18" s="194"/>
@@ -9699,12 +9799,12 @@
       <c r="T18" s="194"/>
       <c r="U18" s="194"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="194">
         <v>17</v>
       </c>
       <c r="C19" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D19" s="194"/>
       <c r="E19" s="194"/>
@@ -9725,12 +9825,12 @@
       <c r="T19" s="194"/>
       <c r="U19" s="194"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="194">
         <v>18</v>
       </c>
       <c r="C20" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D20" s="194"/>
       <c r="E20" s="194"/>
@@ -9751,12 +9851,12 @@
       <c r="T20" s="194"/>
       <c r="U20" s="194"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="194">
         <v>19</v>
       </c>
       <c r="C21" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="194"/>
       <c r="E21" s="194"/>
@@ -9777,7 +9877,7 @@
       <c r="T21" s="194"/>
       <c r="U21" s="194"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="194">
         <v>20</v>
       </c>
@@ -9785,7 +9885,7 @@
         <v>99</v>
       </c>
       <c r="C22" s="185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D22" s="194"/>
       <c r="E22" s="194"/>
@@ -9806,195 +9906,195 @@
       <c r="T22" s="194"/>
       <c r="U22" s="194"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="194">
         <v>21</v>
       </c>
       <c r="C23" s="185" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="194">
         <v>22</v>
       </c>
       <c r="C24" s="185" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="194">
         <v>23</v>
       </c>
       <c r="C25" s="185" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="156" t="s">
+        <v>564</v>
+      </c>
+      <c r="C33" s="178" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="178" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="178" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="202" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="202" t="s">
         <v>565</v>
       </c>
-      <c r="C33" s="178" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="178" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="178" t="s">
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="202" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="202" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="202" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="202" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="202" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="202" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="202" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="202" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="202" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="202" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="202" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="202" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="202" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="202" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="202" t="s">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="202" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="202" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="202" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C55" s="202" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="202" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="202" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="202" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="202" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="202" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="202" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="202" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="202" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="202" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="202" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="202" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="202" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="202" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="202" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="202" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="202" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="202" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="202" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="202" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="202" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="202" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="202" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C55" s="202" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="202" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="202" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="202" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="202" t="s">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="202" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="202" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="202"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="202"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="202"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="202"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="202"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="202"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="202"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="202"/>
     </row>
   </sheetData>
@@ -10011,97 +10111,97 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC73E8D-D204-4DD0-94CC-73EF61230586}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="163" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D2" s="164" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="163" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="163" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="163" t="s">
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="163" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="163" t="s">
+    <row r="6" spans="2:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="201" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="201" t="s">
+      <c r="D6" s="155" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="163" t="s">
         <v>465</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D7" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="163" t="s">
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="201" t="s">
         <v>466</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="201" t="s">
+    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="163" t="s">
         <v>467</v>
       </c>
-      <c r="D8" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="163" t="s">
+    </row>
+    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="163" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="163" t="s">
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="163" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="163" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="163" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="178" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="178" t="s">
-        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -10110,106 +10210,106 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC56AA1-6C74-4219-953F-27E642E377F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H61"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="33.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.21875" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="160" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="161" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D1" s="160" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E1" s="161" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F1" s="161" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G1" s="161" t="s">
         <v>109</v>
       </c>
       <c r="H1" s="162" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="168" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="168" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D2" s="176" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E2" s="168" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F2" s="168">
         <v>2000</v>
       </c>
       <c r="G2" s="156" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2" s="157" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="157" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="168" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="168" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D3" s="176" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E3" s="168" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F3" s="168">
         <v>2000</v>
       </c>
       <c r="G3" s="156" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H3" s="157" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="168" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="168" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D4" s="176" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E4" s="168" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F4" s="168">
         <v>2000</v>
@@ -10217,18 +10317,18 @@
       <c r="G4" s="156"/>
       <c r="H4" s="157"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="168" t="s">
         <v>93</v>
       </c>
       <c r="C5" s="168" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D5" s="176" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E5" s="168" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F5" s="168">
         <v>2000</v>
@@ -10236,18 +10336,18 @@
       <c r="G5" s="156"/>
       <c r="H5" s="157"/>
     </row>
-    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C6" s="177" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" s="173" t="s">
+        <v>439</v>
+      </c>
+      <c r="E6" s="168" t="s">
         <v>456</v>
-      </c>
-      <c r="D6" s="173" t="s">
-        <v>440</v>
-      </c>
-      <c r="E6" s="168" t="s">
-        <v>457</v>
       </c>
       <c r="F6" s="175">
         <v>1500</v>
@@ -10255,18 +10355,18 @@
       <c r="G6" s="156"/>
       <c r="H6" s="157"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C7" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D7" s="173" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E7" s="168" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F7" s="175">
         <v>1500</v>
@@ -10274,18 +10374,18 @@
       <c r="G7" s="156"/>
       <c r="H7" s="157"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C8" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D8" s="173" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E8" s="168" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F8" s="175">
         <v>1500</v>
@@ -10293,18 +10393,18 @@
       <c r="G8" s="156"/>
       <c r="H8" s="157"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C9" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D9" s="173" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E9" s="168" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F9" s="175">
         <v>1500</v>
@@ -10312,18 +10412,18 @@
       <c r="G9" s="156"/>
       <c r="H9" s="157"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C10" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D10" s="172" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E10" s="167" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F10" s="175">
         <v>1500</v>
@@ -10331,18 +10431,18 @@
       <c r="G10" s="156"/>
       <c r="H10" s="157"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C11" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D11" s="172" t="s">
         <v>300</v>
       </c>
       <c r="E11" s="167" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F11" s="175">
         <v>3000</v>
@@ -10350,18 +10450,18 @@
       <c r="G11" s="156"/>
       <c r="H11" s="157"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C12" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D12" s="169" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="167" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F12" s="175">
         <v>1000</v>
@@ -10369,18 +10469,18 @@
       <c r="G12" s="156"/>
       <c r="H12" s="157"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C13" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D13" s="169" t="s">
         <v>94</v>
       </c>
       <c r="E13" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F13" s="175">
         <v>1000</v>
@@ -10388,18 +10488,18 @@
       <c r="G13" s="156"/>
       <c r="H13" s="157"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C14" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D14" s="169" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E14" s="167" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F14" s="175">
         <v>1000</v>
@@ -10407,18 +10507,18 @@
       <c r="G14" s="156"/>
       <c r="H14" s="157"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D15" s="169" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E15" s="167" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F15" s="175">
         <v>1000</v>
@@ -10426,18 +10526,18 @@
       <c r="G15" s="156"/>
       <c r="H15" s="157"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C16" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D16" s="169" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E16" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F16" s="175">
         <v>1000</v>
@@ -10445,18 +10545,18 @@
       <c r="G16" s="156"/>
       <c r="H16" s="157"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C17" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D17" s="169" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E17" s="167" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F17" s="175">
         <v>1000</v>
@@ -10464,18 +10564,18 @@
       <c r="G17" s="156"/>
       <c r="H17" s="157"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C18" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D18" s="170" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E18" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F18" s="175">
         <v>1000</v>
@@ -10483,18 +10583,18 @@
       <c r="G18" s="156"/>
       <c r="H18" s="157"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C19" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D19" s="170" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E19" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F19" s="175">
         <v>1000</v>
@@ -10502,18 +10602,18 @@
       <c r="G19" s="156"/>
       <c r="H19" s="157"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C20" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D20" s="170" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E20" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F20" s="175">
         <v>1000</v>
@@ -10521,18 +10621,18 @@
       <c r="G20" s="156"/>
       <c r="H20" s="157"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C21" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D21" s="171" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E21" s="167" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F21" s="175">
         <v>1500</v>
@@ -10540,18 +10640,18 @@
       <c r="G21" s="156"/>
       <c r="H21" s="157"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C22" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D22" s="171" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E22" s="167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F22" s="175">
         <v>1500</v>
@@ -10559,18 +10659,18 @@
       <c r="G22" s="156"/>
       <c r="H22" s="157"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C23" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D23" s="171" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E23" s="167" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F23" s="175">
         <v>1500</v>
@@ -10578,18 +10678,18 @@
       <c r="G23" s="156"/>
       <c r="H23" s="157"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C24" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D24" s="171" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E24" s="167" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F24" s="175">
         <v>1000</v>
@@ -10597,18 +10697,18 @@
       <c r="G24" s="156"/>
       <c r="H24" s="157"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="177" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C25" s="177" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D25" s="171" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E25" s="167" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F25" s="175">
         <v>1000</v>
@@ -10616,18 +10716,18 @@
       <c r="G25" s="156"/>
       <c r="H25" s="157"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C26" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D26" s="173" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E26" s="167" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F26" s="168">
         <v>1000</v>
@@ -10635,18 +10735,18 @@
       <c r="G26" s="156"/>
       <c r="H26" s="157"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C27" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D27" s="173" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E27" s="167" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F27" s="168">
         <v>1000</v>
@@ -10654,18 +10754,18 @@
       <c r="G27" s="156"/>
       <c r="H27" s="157"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C28" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D28" s="173" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E28" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F28" s="168">
         <v>1000</v>
@@ -10673,18 +10773,18 @@
       <c r="G28" s="156"/>
       <c r="H28" s="157"/>
     </row>
-    <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C29" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D29" s="173" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E29" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F29" s="168">
         <v>1000</v>
@@ -10692,18 +10792,18 @@
       <c r="G29" s="158"/>
       <c r="H29" s="159"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C30" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D30" s="172" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E30" s="167" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F30" s="168">
         <v>1000</v>
@@ -10711,18 +10811,18 @@
       <c r="G30" s="156"/>
       <c r="H30" s="156"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C31" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D31" s="172" t="s">
         <v>300</v>
       </c>
       <c r="E31" s="167" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F31" s="168">
         <v>2000</v>
@@ -10730,18 +10830,18 @@
       <c r="G31" s="156"/>
       <c r="H31" s="156"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C32" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D32" s="169" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="167" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F32" s="168">
         <v>700</v>
@@ -10749,18 +10849,18 @@
       <c r="G32" s="156"/>
       <c r="H32" s="157"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C33" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D33" s="169" t="s">
         <v>94</v>
       </c>
       <c r="E33" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F33" s="168">
         <v>700</v>
@@ -10768,18 +10868,18 @@
       <c r="G33" s="156"/>
       <c r="H33" s="157"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C34" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D34" s="169" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E34" s="167" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F34" s="168">
         <v>700</v>
@@ -10787,18 +10887,18 @@
       <c r="G34" s="156"/>
       <c r="H34" s="157"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C35" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D35" s="169" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E35" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F35" s="168">
         <v>700</v>
@@ -10806,18 +10906,18 @@
       <c r="G35" s="156"/>
       <c r="H35" s="157"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C36" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D36" s="169" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E36" s="167" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F36" s="168">
         <v>700</v>
@@ -10825,18 +10925,18 @@
       <c r="G36" s="156"/>
       <c r="H36" s="157"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C37" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D37" s="169" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E37" s="167" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F37" s="168">
         <v>700</v>
@@ -10844,18 +10944,18 @@
       <c r="G37" s="156"/>
       <c r="H37" s="157"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C38" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D38" s="171" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E38" s="167" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F38" s="168">
         <v>700</v>
@@ -10863,18 +10963,18 @@
       <c r="G38" s="156"/>
       <c r="H38" s="157"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C39" s="168" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D39" s="171" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E39" s="167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F39" s="168">
         <v>1000</v>
@@ -10882,18 +10982,18 @@
       <c r="G39" s="156"/>
       <c r="H39" s="157"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C40" s="168">
         <v>8</v>
       </c>
       <c r="D40" s="173" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E40" s="167" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F40" s="168">
         <v>750</v>
@@ -10901,18 +11001,18 @@
       <c r="G40" s="156"/>
       <c r="H40" s="156"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C41" s="168">
         <v>8</v>
       </c>
       <c r="D41" s="173" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E41" s="167" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F41" s="168">
         <v>750</v>
@@ -10920,18 +11020,18 @@
       <c r="G41" s="156"/>
       <c r="H41" s="156"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C42" s="168">
         <v>8</v>
       </c>
       <c r="D42" s="173" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E42" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F42" s="168">
         <v>750</v>
@@ -10939,18 +11039,18 @@
       <c r="G42" s="156"/>
       <c r="H42" s="156"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C43" s="168">
         <v>8</v>
       </c>
       <c r="D43" s="173" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E43" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F43" s="168">
         <v>750</v>
@@ -10958,18 +11058,18 @@
       <c r="G43" s="156"/>
       <c r="H43" s="156"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C44" s="168">
         <v>8</v>
       </c>
       <c r="D44" s="172" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E44" s="167" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F44" s="168">
         <v>750</v>
@@ -10977,18 +11077,18 @@
       <c r="G44" s="156"/>
       <c r="H44" s="156"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C45" s="168">
         <v>8</v>
       </c>
       <c r="D45" s="172" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E45" s="167" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F45" s="168">
         <v>1500</v>
@@ -10996,9 +11096,9 @@
       <c r="G45" s="156"/>
       <c r="H45" s="156"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C46" s="168">
         <v>8</v>
@@ -11007,7 +11107,7 @@
         <v>96</v>
       </c>
       <c r="E46" s="167" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F46" s="168">
         <v>600</v>
@@ -11015,9 +11115,9 @@
       <c r="G46" s="156"/>
       <c r="H46" s="156"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C47" s="168">
         <v>8</v>
@@ -11026,7 +11126,7 @@
         <v>94</v>
       </c>
       <c r="E47" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F47" s="168">
         <v>600</v>
@@ -11034,18 +11134,18 @@
       <c r="G47" s="156"/>
       <c r="H47" s="156"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C48" s="168">
         <v>8</v>
       </c>
       <c r="D48" s="169" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E48" s="167" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F48" s="168">
         <v>600</v>
@@ -11053,18 +11153,18 @@
       <c r="G48" s="156"/>
       <c r="H48" s="156"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C49" s="168">
         <v>8</v>
       </c>
       <c r="D49" s="169" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E49" s="174" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F49" s="168">
         <v>600</v>
@@ -11072,18 +11172,18 @@
       <c r="G49" s="156"/>
       <c r="H49" s="156"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C50" s="168">
         <v>8</v>
       </c>
       <c r="D50" s="169" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E50" s="167" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F50" s="168">
         <v>600</v>
@@ -11091,18 +11191,18 @@
       <c r="G50" s="156"/>
       <c r="H50" s="156"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C51" s="168">
         <v>8</v>
       </c>
       <c r="D51" s="169" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E51" s="167" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F51" s="168">
         <v>600</v>
@@ -11110,18 +11210,18 @@
       <c r="G51" s="156"/>
       <c r="H51" s="156"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C52" s="168">
         <v>7</v>
       </c>
       <c r="D52" s="172" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E52" s="167" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F52" s="168">
         <v>1500</v>
@@ -11129,18 +11229,18 @@
       <c r="G52" s="156"/>
       <c r="H52" s="156"/>
     </row>
-    <row r="53" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B53" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C53" s="168">
         <v>7</v>
       </c>
       <c r="D53" s="172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E53" s="167" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F53" s="168">
         <v>600</v>
@@ -11148,18 +11248,18 @@
       <c r="G53" s="156"/>
       <c r="H53" s="156"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C54" s="168">
         <v>6</v>
       </c>
       <c r="D54" s="172" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E54" s="167" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F54" s="168">
         <v>1500</v>
@@ -11167,18 +11267,18 @@
       <c r="G54" s="156"/>
       <c r="H54" s="156"/>
     </row>
-    <row r="55" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B55" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C55" s="168">
         <v>6</v>
       </c>
       <c r="D55" s="172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E55" s="167" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F55" s="168">
         <v>600</v>
@@ -11186,18 +11286,18 @@
       <c r="G55" s="156"/>
       <c r="H55" s="156"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C56" s="168">
         <v>5</v>
       </c>
       <c r="D56" s="172" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E56" s="167" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F56" s="168">
         <v>1500</v>
@@ -11205,18 +11305,18 @@
       <c r="G56" s="156"/>
       <c r="H56" s="156"/>
     </row>
-    <row r="57" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B57" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C57" s="168">
         <v>5</v>
       </c>
       <c r="D57" s="172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E57" s="167" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F57" s="168">
         <v>600</v>
@@ -11224,18 +11324,18 @@
       <c r="G57" s="156"/>
       <c r="H57" s="156"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C58" s="168">
         <v>4</v>
       </c>
       <c r="D58" s="172" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E58" s="167" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F58" s="168">
         <v>1500</v>
@@ -11243,18 +11343,18 @@
       <c r="G58" s="156"/>
       <c r="H58" s="156"/>
     </row>
-    <row r="59" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B59" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C59" s="168">
         <v>4</v>
       </c>
       <c r="D59" s="172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E59" s="167" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F59" s="168">
         <v>600</v>
@@ -11262,18 +11362,18 @@
       <c r="G59" s="156"/>
       <c r="H59" s="156"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C60" s="168">
         <v>3</v>
       </c>
       <c r="D60" s="172" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E60" s="167" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F60" s="168">
         <v>1500</v>
@@ -11281,18 +11381,18 @@
       <c r="G60" s="156"/>
       <c r="H60" s="156"/>
     </row>
-    <row r="61" spans="2:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B61" s="168" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C61" s="168">
         <v>3</v>
       </c>
       <c r="D61" s="172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E61" s="167" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F61" s="168">
         <v>600</v>
@@ -11306,23 +11406,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="146" t="s">
         <v>258</v>
       </c>
@@ -11336,140 +11436,140 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="MarketingPlan!A1" display="&lt;-- MarketingPlan" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A1" location="MarketingPlan!A1" display="&lt;-- MarketingPlan"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="141" t="s">
         <v>168</v>
       </c>
@@ -11480,87 +11580,87 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>165</v>
       </c>
@@ -11571,7 +11671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -11581,32 +11681,32 @@
       <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.88671875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -11627,59 +11727,59 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="220" t="s">
+      <c r="C2" s="222" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="220" t="s">
+      <c r="D2" s="222" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="220" t="s">
+      <c r="E2" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="220" t="s">
+      <c r="F2" s="222" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="220" t="s">
+      <c r="G2" s="222" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="222" t="s">
+      <c r="H2" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="220" t="s">
+      <c r="I2" s="222" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="224" t="s">
+      <c r="J2" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="225"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="225"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="225"/>
-      <c r="P2" s="225"/>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="225"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="216" t="s">
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="227"/>
+      <c r="Q2" s="227"/>
+      <c r="R2" s="227"/>
+      <c r="S2" s="228"/>
+      <c r="T2" s="218" t="s">
         <v>24</v>
       </c>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="219"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="221"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="223"/>
       <c r="J3" s="32" t="s">
         <v>22</v>
       </c>
@@ -11710,7 +11810,7 @@
       <c r="S3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="217"/>
+      <c r="T3" s="219"/>
       <c r="U3" s="5"/>
       <c r="V3" s="6"/>
       <c r="W3" s="7"/>
@@ -11718,7 +11818,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="34">
         <v>1</v>
@@ -11783,7 +11883,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="42">
         <v>2</v>
@@ -11848,7 +11948,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="42">
         <v>3</v>
@@ -11913,7 +12013,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="42">
         <v>4</v>
@@ -11978,7 +12078,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="42">
         <v>5</v>
@@ -12043,7 +12143,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="42">
         <v>6</v>
@@ -12108,7 +12208,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="44">
         <v>7</v>
@@ -12173,7 +12273,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="34">
         <v>8</v>
@@ -12238,7 +12338,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="42">
         <v>9</v>
@@ -12303,7 +12403,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -12368,7 +12468,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="44">
         <v>11</v>
@@ -12433,7 +12533,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="57">
         <v>12</v>
@@ -12479,7 +12579,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="64">
         <v>13</v>
@@ -12525,7 +12625,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="64">
         <v>14</v>
@@ -12571,7 +12671,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="64">
         <v>15</v>
@@ -12617,7 +12717,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="64">
         <v>16</v>
@@ -12663,7 +12763,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="91">
         <v>17</v>
@@ -12709,7 +12809,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="107">
         <v>18</v>
@@ -12755,7 +12855,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="115">
         <v>19</v>
@@ -12801,7 +12901,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="115">
         <v>20</v>
@@ -12847,7 +12947,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="117">
         <v>21</v>
@@ -12893,7 +12993,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="99">
         <v>22</v>
@@ -12939,7 +13039,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="76">
         <v>23</v>
@@ -12985,7 +13085,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="78">
         <v>24</v>
@@ -13031,7 +13131,7 @@
       <c r="U27" s="8"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="71">
         <v>25</v>
@@ -13077,7 +13177,7 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="76">
         <v>26</v>
@@ -13123,7 +13223,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="78">
         <v>27</v>
@@ -13169,7 +13269,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -13205,28 +13305,28 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5 T22:T23 T6:T16 I21 I24 G6:H27" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H5 T22:T23 T6:T16 I21 I24 G6:H27">
       <formula1>45051</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H27 E4:F30" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H27 E4:F30">
       <formula1>"Yes, No, Partial, N/A"</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date Field" error="Date Field" sqref="G15:G26 T8 T10:T27" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="date" errorStyle="information" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date Field" error="Date Field" sqref="G15:G26 T8 T10:T27">
       <formula1>45051</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C27" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C27">
       <formula1>"Digital, Traditional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M30" xr:uid="{00000000-0002-0000-0600-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M30">
       <formula1>"New, Planned, WIP, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Input" error="Please select 1-5 from dropdown" sqref="O4:Q30" xr:uid="{00000000-0002-0000-0600-000005000000}">
+    <dataValidation type="list" showErrorMessage="1" errorTitle="Invalid Input" error="Please select 1-5 from dropdown" sqref="O4:Q30">
       <formula1>"1, 2, 3, 4, 5"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please enter a positive whole number!" sqref="N4:R30" xr:uid="{00000000-0002-0000-0600-000006000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please enter a positive whole number!" sqref="N4:R30">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I30" xr:uid="{00000000-0002-0000-0600-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I30">
       <formula1>"Daily Twice, Daily, Weekly Twice, Weekly, Fortnightly, Monthly, One off, N/A, TBD"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13236,19 +13336,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="141" t="s">
         <v>168</v>
       </c>
@@ -13259,107 +13359,107 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="141" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="145" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C25" s="145" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="145" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="145" t="s">
         <v>307</v>
       </c>
